--- a/03_Outputs/all/idx11_pobreza_loadings_y_tops.xlsx
+++ b/03_Outputs/all/idx11_pobreza_loadings_y_tops.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C530"/>
+  <dimension ref="A1:E530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,6 +376,16 @@
           <t>loading</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>peso_relativo_pct</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -391,6 +401,12 @@
       <c r="C2">
         <v>0.244288346392978</v>
       </c>
+      <c r="D2">
+        <v>0.05160223631492521</v>
+      </c>
+      <c r="E2">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -406,6 +422,12 @@
       <c r="C3">
         <v>0.2268627822099162</v>
       </c>
+      <c r="D3">
+        <v>0.04792134815889037</v>
+      </c>
+      <c r="E3">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -421,6 +443,12 @@
       <c r="C4">
         <v>0.2033605039362437</v>
       </c>
+      <c r="D4">
+        <v>0.04295684561374545</v>
+      </c>
+      <c r="E4">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -436,6 +464,12 @@
       <c r="C5">
         <v>0.157695016321636</v>
       </c>
+      <c r="D5">
+        <v>0.03331069868074949</v>
+      </c>
+      <c r="E5">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -451,6 +485,12 @@
       <c r="C6">
         <v>0.1215295860209067</v>
       </c>
+      <c r="D6">
+        <v>0.02567129586696536</v>
+      </c>
+      <c r="E6">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -466,6 +506,12 @@
       <c r="C7">
         <v>0.1145427871481473</v>
       </c>
+      <c r="D7">
+        <v>0.02419543976559814</v>
+      </c>
+      <c r="E7">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -481,6 +527,12 @@
       <c r="C8">
         <v>0.2351261304289207</v>
       </c>
+      <c r="D8">
+        <v>0.0496668560959069</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -496,6 +548,12 @@
       <c r="C9">
         <v>0.2213377954888254</v>
       </c>
+      <c r="D9">
+        <v>0.04675427787236953</v>
+      </c>
+      <c r="E9">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -511,6 +569,12 @@
       <c r="C10">
         <v>0.1840816992443775</v>
       </c>
+      <c r="D10">
+        <v>0.03888448829393037</v>
+      </c>
+      <c r="E10">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -526,6 +590,12 @@
       <c r="C11">
         <v>0.2098674752857456</v>
       </c>
+      <c r="D11">
+        <v>0.04433134537285921</v>
+      </c>
+      <c r="E11">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -541,6 +611,12 @@
       <c r="C12">
         <v>0.2031859421367442</v>
       </c>
+      <c r="D12">
+        <v>0.04291997206098562</v>
+      </c>
+      <c r="E12">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -556,6 +632,12 @@
       <c r="C13">
         <v>0.2032805507865644</v>
       </c>
+      <c r="D13">
+        <v>0.04293995671427565</v>
+      </c>
+      <c r="E13">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -571,6 +653,12 @@
       <c r="C14">
         <v>0.2003759995384213</v>
       </c>
+      <c r="D14">
+        <v>0.04232641398041809</v>
+      </c>
+      <c r="E14">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -586,6 +674,12 @@
       <c r="C15">
         <v>0.2096530468022201</v>
       </c>
+      <c r="D15">
+        <v>0.04428605058314485</v>
+      </c>
+      <c r="E15">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -601,6 +695,12 @@
       <c r="C16">
         <v>0.1930811761962004</v>
       </c>
+      <c r="D16">
+        <v>0.04078549234605013</v>
+      </c>
+      <c r="E16">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -616,6 +716,12 @@
       <c r="C17">
         <v>0.2005370670276991</v>
       </c>
+      <c r="D17">
+        <v>0.04236043706325068</v>
+      </c>
+      <c r="E17">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -631,6 +737,12 @@
       <c r="C18">
         <v>0.2268976465295912</v>
       </c>
+      <c r="D18">
+        <v>0.04792871272166789</v>
+      </c>
+      <c r="E18">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -646,6 +758,12 @@
       <c r="C19">
         <v>0.2244892520307856</v>
       </c>
+      <c r="D19">
+        <v>0.04741997563329687</v>
+      </c>
+      <c r="E19">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -661,6 +779,12 @@
       <c r="C20">
         <v>0.219754456166576</v>
       </c>
+      <c r="D20">
+        <v>0.04641982127188155</v>
+      </c>
+      <c r="E20">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -676,6 +800,12 @@
       <c r="C21">
         <v>0.2358876717162724</v>
       </c>
+      <c r="D21">
+        <v>0.04982772023066294</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -691,6 +821,12 @@
       <c r="C22">
         <v>0.2327915016788114</v>
       </c>
+      <c r="D22">
+        <v>0.04917370091167653</v>
+      </c>
+      <c r="E22">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -706,6 +842,12 @@
       <c r="C23">
         <v>0.2305650063878259</v>
       </c>
+      <c r="D23">
+        <v>0.04870338729313544</v>
+      </c>
+      <c r="E23">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -721,6 +863,12 @@
       <c r="C24">
         <v>0.2348736677440059</v>
       </c>
+      <c r="D24">
+        <v>0.04961352715361377</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -736,6 +884,12 @@
       <c r="C25">
         <v>0.2217901836143534</v>
       </c>
+      <c r="D25">
+        <v>0.0533590728064781</v>
+      </c>
+      <c r="E25">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -751,6 +905,12 @@
       <c r="C26">
         <v>0.2936727925108275</v>
       </c>
+      <c r="D26">
+        <v>0.07065284703543961</v>
+      </c>
+      <c r="E26">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -766,6 +926,12 @@
       <c r="C27">
         <v>0.3182170713975069</v>
       </c>
+      <c r="D27">
+        <v>0.07655779712274399</v>
+      </c>
+      <c r="E27">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -781,6 +947,12 @@
       <c r="C28">
         <v>0.3105170225371591</v>
       </c>
+      <c r="D28">
+        <v>0.07470529192590827</v>
+      </c>
+      <c r="E28">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -796,6 +968,12 @@
       <c r="C29">
         <v>0.388465203273833</v>
       </c>
+      <c r="D29">
+        <v>0.09345834304512621</v>
+      </c>
+      <c r="E29">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -811,6 +989,12 @@
       <c r="C30">
         <v>0.3935018668737268</v>
       </c>
+      <c r="D30">
+        <v>0.0946700815240292</v>
+      </c>
+      <c r="E30">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -826,6 +1010,12 @@
       <c r="C31">
         <v>0.1139942694639613</v>
       </c>
+      <c r="D31">
+        <v>0.0274251476089907</v>
+      </c>
+      <c r="E31">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -841,6 +1031,12 @@
       <c r="C32">
         <v>0.1303513235528821</v>
       </c>
+      <c r="D32">
+        <v>0.03136038597620282</v>
+      </c>
+      <c r="E32">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -856,6 +1052,12 @@
       <c r="C33">
         <v>0.09445823571526273</v>
       </c>
+      <c r="D33">
+        <v>0.02272509898574245</v>
+      </c>
+      <c r="E33">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -871,6 +1073,12 @@
       <c r="C34">
         <v>-0.1306557309427679</v>
       </c>
+      <c r="D34">
+        <v>0.03143362139093151</v>
+      </c>
+      <c r="E34">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -886,6 +1094,12 @@
       <c r="C35">
         <v>-0.1514298437247673</v>
       </c>
+      <c r="D35">
+        <v>0.03643153148037044</v>
+      </c>
+      <c r="E35">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -901,6 +1115,12 @@
       <c r="C36">
         <v>-0.1110002121172881</v>
       </c>
+      <c r="D36">
+        <v>0.02670482662208132</v>
+      </c>
+      <c r="E36">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -916,6 +1136,12 @@
       <c r="C37">
         <v>-0.2370396140579389</v>
       </c>
+      <c r="D37">
+        <v>0.05702783512966301</v>
+      </c>
+      <c r="E37">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -931,6 +1157,12 @@
       <c r="C38">
         <v>-0.2077647244895507</v>
       </c>
+      <c r="D38">
+        <v>0.049984777865247</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -946,6 +1178,12 @@
       <c r="C39">
         <v>-0.2359955206627523</v>
       </c>
+      <c r="D39">
+        <v>0.05677664341963045</v>
+      </c>
+      <c r="E39">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -961,6 +1199,12 @@
       <c r="C40">
         <v>-0.2285038719485795</v>
       </c>
+      <c r="D40">
+        <v>0.05497427587267362</v>
+      </c>
+      <c r="E40">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -976,6 +1220,12 @@
       <c r="C41">
         <v>-0.03384734391602302</v>
       </c>
+      <c r="D41">
+        <v>0.008143114627026686</v>
+      </c>
+      <c r="E41">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -991,6 +1241,12 @@
       <c r="C42">
         <v>-0.0410419129738652</v>
       </c>
+      <c r="D42">
+        <v>0.009874009691508661</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1006,6 +1262,12 @@
       <c r="C43">
         <v>-0.02880922479334977</v>
       </c>
+      <c r="D43">
+        <v>0.006931025973266114</v>
+      </c>
+      <c r="E43">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1021,6 +1283,12 @@
       <c r="C44">
         <v>-0.1199499785342008</v>
       </c>
+      <c r="D44">
+        <v>0.02885799332251282</v>
+      </c>
+      <c r="E44">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1036,6 +1304,12 @@
       <c r="C45">
         <v>-0.1266535931533374</v>
       </c>
+      <c r="D45">
+        <v>0.03047077281843067</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1051,6 +1325,12 @@
       <c r="C46">
         <v>-0.1167745530047198</v>
       </c>
+      <c r="D46">
+        <v>0.02809403813180996</v>
+      </c>
+      <c r="E46">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1066,6 +1346,12 @@
       <c r="C47">
         <v>-0.122125830837832</v>
       </c>
+      <c r="D47">
+        <v>0.0293814676241865</v>
+      </c>
+      <c r="E47">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1081,6 +1367,12 @@
       <c r="C48">
         <v>-0.04958060309528684</v>
       </c>
+      <c r="D48">
+        <v>0.01259378638351669</v>
+      </c>
+      <c r="E48">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1096,6 +1388,12 @@
       <c r="C49">
         <v>-0.04867225650851996</v>
       </c>
+      <c r="D49">
+        <v>0.01236306061251399</v>
+      </c>
+      <c r="E49">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1111,6 +1409,12 @@
       <c r="C50">
         <v>-0.08238988524939131</v>
       </c>
+      <c r="D50">
+        <v>0.02092755130467385</v>
+      </c>
+      <c r="E50">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1126,6 +1430,12 @@
       <c r="C51">
         <v>-0.05169344932851345</v>
       </c>
+      <c r="D51">
+        <v>0.01313046267346289</v>
+      </c>
+      <c r="E51">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1141,6 +1451,12 @@
       <c r="C52">
         <v>-0.06085329651410425</v>
       </c>
+      <c r="D52">
+        <v>0.01545712172073763</v>
+      </c>
+      <c r="E52">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1156,6 +1472,12 @@
       <c r="C53">
         <v>-0.1116673922422791</v>
       </c>
+      <c r="D53">
+        <v>0.02836422302489734</v>
+      </c>
+      <c r="E53">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1171,6 +1493,12 @@
       <c r="C54">
         <v>-0.03601775140124482</v>
       </c>
+      <c r="D54">
+        <v>0.009148736377613882</v>
+      </c>
+      <c r="E54">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1186,6 +1514,12 @@
       <c r="C55">
         <v>-0.02398859395791754</v>
       </c>
+      <c r="D55">
+        <v>0.006093254399635389</v>
+      </c>
+      <c r="E55">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1201,6 +1535,12 @@
       <c r="C56">
         <v>-0.01561502880751925</v>
       </c>
+      <c r="D56">
+        <v>0.003966315956189946</v>
+      </c>
+      <c r="E56">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1216,6 +1556,12 @@
       <c r="C57">
         <v>0.3387036424553597</v>
       </c>
+      <c r="D57">
+        <v>0.08603286475164518</v>
+      </c>
+      <c r="E57">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1231,6 +1577,12 @@
       <c r="C58">
         <v>0.319293574317178</v>
       </c>
+      <c r="D58">
+        <v>0.0811025848324604</v>
+      </c>
+      <c r="E58">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1246,6 +1598,12 @@
       <c r="C59">
         <v>0.3360340779154263</v>
       </c>
+      <c r="D59">
+        <v>0.0853547784950436</v>
+      </c>
+      <c r="E59">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1261,6 +1619,12 @@
       <c r="C60">
         <v>-0.2819419758435484</v>
       </c>
+      <c r="D60">
+        <v>0.0716150428726391</v>
+      </c>
+      <c r="E60">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1276,6 +1640,12 @@
       <c r="C61">
         <v>-0.273476882421344</v>
       </c>
+      <c r="D61">
+        <v>0.06946485566997701</v>
+      </c>
+      <c r="E61">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1291,6 +1661,12 @@
       <c r="C62">
         <v>-0.2897352254960117</v>
       </c>
+      <c r="D62">
+        <v>0.07359457751379533</v>
+      </c>
+      <c r="E62">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1306,6 +1682,12 @@
       <c r="C63">
         <v>-0.2656218676514346</v>
       </c>
+      <c r="D63">
+        <v>0.0674696322988234</v>
+      </c>
+      <c r="E63">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1321,6 +1703,12 @@
       <c r="C64">
         <v>0.3107150718207165</v>
       </c>
+      <c r="D64">
+        <v>0.07892359100853956</v>
+      </c>
+      <c r="E64">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1336,6 +1724,12 @@
       <c r="C65">
         <v>0.2955118710842662</v>
       </c>
+      <c r="D65">
+        <v>0.07506188198389119</v>
+      </c>
+      <c r="E65">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1351,6 +1745,12 @@
       <c r="C66">
         <v>0.3105882117213835</v>
       </c>
+      <c r="D66">
+        <v>0.0788913677419423</v>
+      </c>
+      <c r="E66">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1366,6 +1766,12 @@
       <c r="C67">
         <v>-0.1079604306130015</v>
       </c>
+      <c r="D67">
+        <v>0.02742263135443514</v>
+      </c>
+      <c r="E67">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1381,6 +1787,12 @@
       <c r="C68">
         <v>-0.1076156104015544</v>
       </c>
+      <c r="D68">
+        <v>0.02733504484252163</v>
+      </c>
+      <c r="E68">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1396,6 +1808,12 @@
       <c r="C69">
         <v>-0.1365334259096247</v>
       </c>
+      <c r="D69">
+        <v>0.03468035265345472</v>
+      </c>
+      <c r="E69">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1411,6 +1829,12 @@
       <c r="C70">
         <v>-0.08269983904844151</v>
       </c>
+      <c r="D70">
+        <v>0.02100628152758978</v>
+      </c>
+      <c r="E70">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1426,6 +1850,12 @@
       <c r="C71">
         <v>0.05846447368577487</v>
       </c>
+      <c r="D71">
+        <v>0.01381965500421028</v>
+      </c>
+      <c r="E71">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1441,6 +1871,12 @@
       <c r="C72">
         <v>0.06579126733319049</v>
       </c>
+      <c r="D72">
+        <v>0.01555154026907258</v>
+      </c>
+      <c r="E72">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1456,6 +1892,12 @@
       <c r="C73">
         <v>0.1079956546199423</v>
       </c>
+      <c r="D73">
+        <v>0.02552768535680132</v>
+      </c>
+      <c r="E73">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1471,6 +1913,12 @@
       <c r="C74">
         <v>-0.3409430656374229</v>
       </c>
+      <c r="D74">
+        <v>0.08059108799149976</v>
+      </c>
+      <c r="E74">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1486,6 +1934,12 @@
       <c r="C75">
         <v>-0.3503344672158397</v>
       </c>
+      <c r="D75">
+        <v>0.08281099901844696</v>
+      </c>
+      <c r="E75">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1501,6 +1955,12 @@
       <c r="C76">
         <v>-0.2510863012052095</v>
       </c>
+      <c r="D76">
+        <v>0.05935101849353513</v>
+      </c>
+      <c r="E76">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1516,6 +1976,12 @@
       <c r="C77">
         <v>0.2813782432761088</v>
       </c>
+      <c r="D77">
+        <v>0.06651133590402451</v>
+      </c>
+      <c r="E77">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1531,6 +1997,12 @@
       <c r="C78">
         <v>0.3246981623307882</v>
       </c>
+      <c r="D78">
+        <v>0.0767511670083563</v>
+      </c>
+      <c r="E78">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1546,6 +2018,12 @@
       <c r="C79">
         <v>0.3795756162507499</v>
       </c>
+      <c r="D79">
+        <v>0.08972293315747742</v>
+      </c>
+      <c r="E79">
+        <v>9</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1561,6 +2039,12 @@
       <c r="C80">
         <v>-0.130931526144976</v>
       </c>
+      <c r="D80">
+        <v>0.03094919711795102</v>
+      </c>
+      <c r="E80">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1576,6 +2060,12 @@
       <c r="C81">
         <v>-0.08664656345234892</v>
       </c>
+      <c r="D81">
+        <v>0.02048125192484587</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1591,6 +2081,12 @@
       <c r="C82">
         <v>-0.1679030030434313</v>
       </c>
+      <c r="D82">
+        <v>0.03968840271618938</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1606,6 +2102,12 @@
       <c r="C83">
         <v>-0.2125567370099251</v>
       </c>
+      <c r="D83">
+        <v>0.05024351694476197</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1621,6 +2123,12 @@
       <c r="C84">
         <v>-0.1973509082847354</v>
       </c>
+      <c r="D84">
+        <v>0.04664920926032691</v>
+      </c>
+      <c r="E84">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1636,6 +2144,12 @@
       <c r="C85">
         <v>-0.2087957368288914</v>
       </c>
+      <c r="D85">
+        <v>0.04935450312669513</v>
+      </c>
+      <c r="E85">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1651,6 +2165,12 @@
       <c r="C86">
         <v>-0.2124337337540599</v>
       </c>
+      <c r="D86">
+        <v>0.05021444180813134</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1666,6 +2186,12 @@
       <c r="C87">
         <v>-0.06315954518422956</v>
       </c>
+      <c r="D87">
+        <v>0.01492946176784376</v>
+      </c>
+      <c r="E87">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1681,6 +2207,12 @@
       <c r="C88">
         <v>-0.03117104195801491</v>
       </c>
+      <c r="D88">
+        <v>0.007368116376053888</v>
+      </c>
+      <c r="E88">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1696,6 +2228,12 @@
       <c r="C89">
         <v>-0.09686943926480165</v>
       </c>
+      <c r="D89">
+        <v>0.02289770430990098</v>
+      </c>
+      <c r="E89">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1711,6 +2249,12 @@
       <c r="C90">
         <v>0.1689199836974873</v>
       </c>
+      <c r="D90">
+        <v>0.03992879351933841</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1726,6 +2270,12 @@
       <c r="C91">
         <v>0.1618728715050591</v>
       </c>
+      <c r="D91">
+        <v>0.03826301850870974</v>
+      </c>
+      <c r="E91">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1741,6 +2291,12 @@
       <c r="C92">
         <v>0.1581487403548676</v>
       </c>
+      <c r="D92">
+        <v>0.03738271968035303</v>
+      </c>
+      <c r="E92">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1756,6 +2312,12 @@
       <c r="C93">
         <v>0.1735035403230625</v>
       </c>
+      <c r="D93">
+        <v>0.04101224073547446</v>
+      </c>
+      <c r="E93">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1771,6 +2333,12 @@
       <c r="C94">
         <v>0.0842631503350687</v>
       </c>
+      <c r="D94">
+        <v>0.02090336120626407</v>
+      </c>
+      <c r="E94">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1786,6 +2354,12 @@
       <c r="C95">
         <v>0.09006680452590321</v>
       </c>
+      <c r="D95">
+        <v>0.02234308757995001</v>
+      </c>
+      <c r="E95">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1801,6 +2375,12 @@
       <c r="C96">
         <v>0.141840013484385</v>
       </c>
+      <c r="D96">
+        <v>0.03518659133411865</v>
+      </c>
+      <c r="E96">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1816,6 +2396,12 @@
       <c r="C97">
         <v>-0.0708554406688235</v>
       </c>
+      <c r="D97">
+        <v>0.01757727860683863</v>
+      </c>
+      <c r="E97">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1831,6 +2417,12 @@
       <c r="C98">
         <v>-0.1343264349016957</v>
       </c>
+      <c r="D98">
+        <v>0.03332267992751842</v>
+      </c>
+      <c r="E98">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1846,6 +2438,12 @@
       <c r="C99">
         <v>-0.2105766624757296</v>
       </c>
+      <c r="D99">
+        <v>0.05223825622275363</v>
+      </c>
+      <c r="E99">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1861,6 +2459,12 @@
       <c r="C100">
         <v>0.1555568526593237</v>
       </c>
+      <c r="D100">
+        <v>0.03858936043000239</v>
+      </c>
+      <c r="E100">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1876,6 +2480,12 @@
       <c r="C101">
         <v>0.2112267441940675</v>
       </c>
+      <c r="D101">
+        <v>0.05239952354919433</v>
+      </c>
+      <c r="E101">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1891,6 +2501,12 @@
       <c r="C102">
         <v>0.3908341124669448</v>
       </c>
+      <c r="D102">
+        <v>0.09695515290063976</v>
+      </c>
+      <c r="E102">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1906,6 +2522,12 @@
       <c r="C103">
         <v>0.08484047021598246</v>
       </c>
+      <c r="D103">
+        <v>0.02104657832969596</v>
+      </c>
+      <c r="E103">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1921,6 +2543,12 @@
       <c r="C104">
         <v>0.07790268864985909</v>
       </c>
+      <c r="D104">
+        <v>0.01932550626592716</v>
+      </c>
+      <c r="E104">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1936,6 +2564,12 @@
       <c r="C105">
         <v>0.08944089918214913</v>
       </c>
+      <c r="D105">
+        <v>0.0221878177445665</v>
+      </c>
+      <c r="E105">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1951,6 +2585,12 @@
       <c r="C106">
         <v>0.1945244602177132</v>
       </c>
+      <c r="D106">
+        <v>0.04825614802218146</v>
+      </c>
+      <c r="E106">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1966,6 +2606,12 @@
       <c r="C107">
         <v>0.1371855342600634</v>
       </c>
+      <c r="D107">
+        <v>0.03403194354245455</v>
+      </c>
+      <c r="E107">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1981,6 +2627,12 @@
       <c r="C108">
         <v>0.184192208316086</v>
       </c>
+      <c r="D108">
+        <v>0.04569300158491924</v>
+      </c>
+      <c r="E108">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1996,6 +2648,12 @@
       <c r="C109">
         <v>0.1938221091838431</v>
       </c>
+      <c r="D109">
+        <v>0.0480819141216425</v>
+      </c>
+      <c r="E109">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2011,6 +2669,12 @@
       <c r="C110">
         <v>-0.04478336458789433</v>
       </c>
+      <c r="D110">
+        <v>0.01110951634599607</v>
+      </c>
+      <c r="E110">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2026,6 +2690,12 @@
       <c r="C111">
         <v>-0.04978538056816228</v>
       </c>
+      <c r="D111">
+        <v>0.01235037841178963</v>
+      </c>
+      <c r="E111">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2041,6 +2711,12 @@
       <c r="C112">
         <v>-0.0432719831219907</v>
       </c>
+      <c r="D112">
+        <v>0.01073458433150803</v>
+      </c>
+      <c r="E112">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2056,6 +2732,12 @@
       <c r="C113">
         <v>-0.3615074865137198</v>
       </c>
+      <c r="D113">
+        <v>0.08968002667021052</v>
+      </c>
+      <c r="E113">
+        <v>9</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2071,6 +2753,12 @@
       <c r="C114">
         <v>-0.3629325507255411</v>
       </c>
+      <c r="D114">
+        <v>0.09003354575706367</v>
+      </c>
+      <c r="E114">
+        <v>9</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2086,6 +2774,12 @@
       <c r="C115">
         <v>-0.3691544431616148</v>
       </c>
+      <c r="D115">
+        <v>0.0915770254923999</v>
+      </c>
+      <c r="E115">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2101,6 +2795,12 @@
       <c r="C116">
         <v>-0.3481915950117452</v>
       </c>
+      <c r="D116">
+        <v>0.08637672162236504</v>
+      </c>
+      <c r="E116">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -2116,6 +2816,12 @@
       <c r="C117">
         <v>-0.06626151181255119</v>
       </c>
+      <c r="D117">
+        <v>0.01885863625377087</v>
+      </c>
+      <c r="E117">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -2131,6 +2837,12 @@
       <c r="C118">
         <v>-0.02347797916435844</v>
       </c>
+      <c r="D118">
+        <v>0.006682049004357001</v>
+      </c>
+      <c r="E118">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -2146,6 +2858,12 @@
       <c r="C119">
         <v>0.1717108870334541</v>
       </c>
+      <c r="D119">
+        <v>0.04887049919019307</v>
+      </c>
+      <c r="E119">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -2161,6 +2879,12 @@
       <c r="C120">
         <v>-0.09970565563722224</v>
       </c>
+      <c r="D120">
+        <v>0.02837714746722617</v>
+      </c>
+      <c r="E120">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -2176,6 +2900,12 @@
       <c r="C121">
         <v>0.04716481226549572</v>
       </c>
+      <c r="D121">
+        <v>0.01342353976179417</v>
+      </c>
+      <c r="E121">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2191,6 +2921,12 @@
       <c r="C122">
         <v>0.1956460066297785</v>
       </c>
+      <c r="D122">
+        <v>0.05568265456984266</v>
+      </c>
+      <c r="E122">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -2206,6 +2942,12 @@
       <c r="C123">
         <v>-0.02993339518845567</v>
       </c>
+      <c r="D123">
+        <v>0.00851931983224888</v>
+      </c>
+      <c r="E123">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -2221,6 +2963,12 @@
       <c r="C124">
         <v>-0.06326970308536042</v>
       </c>
+      <c r="D124">
+        <v>0.01800713994794315</v>
+      </c>
+      <c r="E124">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -2236,6 +2984,12 @@
       <c r="C125">
         <v>0.06604840498359318</v>
       </c>
+      <c r="D125">
+        <v>0.01879798408842514</v>
+      </c>
+      <c r="E125">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -2251,6 +3005,12 @@
       <c r="C126">
         <v>0.3688381832420803</v>
       </c>
+      <c r="D126">
+        <v>0.1049747424106693</v>
+      </c>
+      <c r="E126">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -2266,6 +3026,12 @@
       <c r="C127">
         <v>0.391625418274814</v>
       </c>
+      <c r="D127">
+        <v>0.1114601992762959</v>
+      </c>
+      <c r="E127">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -2281,6 +3047,12 @@
       <c r="C128">
         <v>0.3382520605399839</v>
       </c>
+      <c r="D128">
+        <v>0.09626965031914263</v>
+      </c>
+      <c r="E128">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -2296,6 +3068,12 @@
       <c r="C129">
         <v>-0.04507926609120338</v>
       </c>
+      <c r="D129">
+        <v>0.0128299741214163</v>
+      </c>
+      <c r="E129">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -2311,6 +3089,12 @@
       <c r="C130">
         <v>-0.06466960284839743</v>
       </c>
+      <c r="D130">
+        <v>0.01840556430773649</v>
+      </c>
+      <c r="E130">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -2326,6 +3110,12 @@
       <c r="C131">
         <v>-0.01710950675427115</v>
       </c>
+      <c r="D131">
+        <v>0.004869523129400093</v>
+      </c>
+      <c r="E131">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -2341,6 +3131,12 @@
       <c r="C132">
         <v>-0.07113761907116967</v>
       </c>
+      <c r="D132">
+        <v>0.02024642126816651</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -2356,6 +3152,12 @@
       <c r="C133">
         <v>-0.3997212379396927</v>
       </c>
+      <c r="D133">
+        <v>0.1137643440816239</v>
+      </c>
+      <c r="E133">
+        <v>11.4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -2371,6 +3173,12 @@
       <c r="C134">
         <v>-0.3952537413080142</v>
       </c>
+      <c r="D134">
+        <v>0.1124928534132536</v>
+      </c>
+      <c r="E134">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -2386,6 +3194,12 @@
       <c r="C135">
         <v>-0.3906505862441592</v>
       </c>
+      <c r="D135">
+        <v>0.1111827531062379</v>
+      </c>
+      <c r="E135">
+        <v>11.1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -2401,6 +3215,12 @@
       <c r="C136">
         <v>0.08362111401778224</v>
       </c>
+      <c r="D136">
+        <v>0.02379933885084925</v>
+      </c>
+      <c r="E136">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -2416,6 +3236,12 @@
       <c r="C137">
         <v>0.02274398081913835</v>
       </c>
+      <c r="D137">
+        <v>0.00647314631824664</v>
+      </c>
+      <c r="E137">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -2431,6 +3257,12 @@
       <c r="C138">
         <v>0.05547522579128034</v>
       </c>
+      <c r="D138">
+        <v>0.01578875995544969</v>
+      </c>
+      <c r="E138">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -2446,6 +3278,12 @@
       <c r="C139">
         <v>0.106193892211046</v>
       </c>
+      <c r="D139">
+        <v>0.03022375932571048</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -2461,6 +3299,12 @@
       <c r="C140">
         <v>-0.2669941352345399</v>
       </c>
+      <c r="D140">
+        <v>0.08530457502425542</v>
+      </c>
+      <c r="E140">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -2476,6 +3320,12 @@
       <c r="C141">
         <v>-0.1100778091179786</v>
       </c>
+      <c r="D141">
+        <v>0.03516983891111145</v>
+      </c>
+      <c r="E141">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -2491,6 +3341,12 @@
       <c r="C142">
         <v>0.374477865975827</v>
       </c>
+      <c r="D142">
+        <v>0.1196456063913027</v>
+      </c>
+      <c r="E142">
+        <v>12</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2506,6 +3362,12 @@
       <c r="C143">
         <v>-0.5172266792656475</v>
       </c>
+      <c r="D143">
+        <v>0.1652538248722366</v>
+      </c>
+      <c r="E143">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -2521,6 +3383,12 @@
       <c r="C144">
         <v>-0.1850794474876876</v>
       </c>
+      <c r="D144">
+        <v>0.0591328479923058</v>
+      </c>
+      <c r="E144">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -2536,6 +3404,12 @@
       <c r="C145">
         <v>0.5984937300875335</v>
       </c>
+      <c r="D145">
+        <v>0.1912186320308125</v>
+      </c>
+      <c r="E145">
+        <v>19.1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -2551,6 +3425,12 @@
       <c r="C146">
         <v>-0.05197147141039582</v>
       </c>
+      <c r="D146">
+        <v>0.01660487515261169</v>
+      </c>
+      <c r="E146">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -2566,6 +3446,12 @@
       <c r="C147">
         <v>-0.02219227220854699</v>
       </c>
+      <c r="D147">
+        <v>0.007090426716338571</v>
+      </c>
+      <c r="E147">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -2581,6 +3467,12 @@
       <c r="C148">
         <v>-0.01119548506952628</v>
       </c>
+      <c r="D148">
+        <v>0.003576955333522203</v>
+      </c>
+      <c r="E148">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -2596,6 +3488,12 @@
       <c r="C149">
         <v>-0.05200490408662965</v>
       </c>
+      <c r="D149">
+        <v>0.0166155568862593</v>
+      </c>
+      <c r="E149">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -2611,6 +3509,12 @@
       <c r="C150">
         <v>-0.1015471158565625</v>
       </c>
+      <c r="D150">
+        <v>0.03244428404943581</v>
+      </c>
+      <c r="E150">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -2626,6 +3530,12 @@
       <c r="C151">
         <v>-0.01061925700908213</v>
       </c>
+      <c r="D151">
+        <v>0.00339285057867409</v>
+      </c>
+      <c r="E151">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -2641,6 +3551,12 @@
       <c r="C152">
         <v>0.06394932420346025</v>
       </c>
+      <c r="D152">
+        <v>0.02043179682382325</v>
+      </c>
+      <c r="E152">
+        <v>2</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -2656,6 +3572,12 @@
       <c r="C153">
         <v>0.02034516631611469</v>
       </c>
+      <c r="D153">
+        <v>0.006500276737799448</v>
+      </c>
+      <c r="E153">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -2671,6 +3593,12 @@
       <c r="C154">
         <v>0.03110757513971096</v>
       </c>
+      <c r="D154">
+        <v>0.009938864293768385</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -2686,6 +3614,12 @@
       <c r="C155">
         <v>0.09381425707810728</v>
       </c>
+      <c r="D155">
+        <v>0.02997363715212012</v>
+      </c>
+      <c r="E155">
+        <v>3</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -2701,6 +3635,12 @@
       <c r="C156">
         <v>0.1481155738678648</v>
       </c>
+      <c r="D156">
+        <v>0.04732289745680297</v>
+      </c>
+      <c r="E156">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -2716,6 +3656,12 @@
       <c r="C157">
         <v>0.05524447412291607</v>
       </c>
+      <c r="D157">
+        <v>0.01765059889182233</v>
+      </c>
+      <c r="E157">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -2731,6 +3677,12 @@
       <c r="C158">
         <v>0.2207308224977237</v>
       </c>
+      <c r="D158">
+        <v>0.07052345547358975</v>
+      </c>
+      <c r="E158">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -2746,6 +3698,12 @@
       <c r="C159">
         <v>-0.02502505349855432</v>
       </c>
+      <c r="D159">
+        <v>0.007995499795447451</v>
+      </c>
+      <c r="E159">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -2761,6 +3719,12 @@
       <c r="C160">
         <v>-0.06413672564241599</v>
       </c>
+      <c r="D160">
+        <v>0.02049167154764447</v>
+      </c>
+      <c r="E160">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -2776,6 +3740,12 @@
       <c r="C161">
         <v>-0.08148415032382968</v>
       </c>
+      <c r="D161">
+        <v>0.02603417040782856</v>
+      </c>
+      <c r="E161">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -2791,6 +3761,12 @@
       <c r="C162">
         <v>0.02405903628369648</v>
       </c>
+      <c r="D162">
+        <v>0.007686857480487334</v>
+      </c>
+      <c r="E162">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -2806,6 +3782,12 @@
       <c r="C163">
         <v>-0.1596650506659062</v>
       </c>
+      <c r="D163">
+        <v>0.0483334360042074</v>
+      </c>
+      <c r="E163">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -2821,6 +3803,12 @@
       <c r="C164">
         <v>-0.2632537843199244</v>
       </c>
+      <c r="D164">
+        <v>0.07969157861551647</v>
+      </c>
+      <c r="E164">
+        <v>8</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -2836,6 +3824,12 @@
       <c r="C165">
         <v>0.3454290722669424</v>
       </c>
+      <c r="D165">
+        <v>0.104567492314535</v>
+      </c>
+      <c r="E165">
+        <v>10.5</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -2851,6 +3845,12 @@
       <c r="C166">
         <v>0.2626123650098514</v>
       </c>
+      <c r="D166">
+        <v>0.07949740964086623</v>
+      </c>
+      <c r="E166">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -2866,6 +3866,12 @@
       <c r="C167">
         <v>0.03167733529177189</v>
       </c>
+      <c r="D167">
+        <v>0.009589289902349384</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -2881,6 +3887,12 @@
       <c r="C168">
         <v>-0.1162146085733187</v>
       </c>
+      <c r="D168">
+        <v>0.03518021835590059</v>
+      </c>
+      <c r="E168">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -2896,6 +3908,12 @@
       <c r="C169">
         <v>-0.3710537399601882</v>
       </c>
+      <c r="D169">
+        <v>0.1123245326368543</v>
+      </c>
+      <c r="E169">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -2911,6 +3929,12 @@
       <c r="C170">
         <v>-0.3735251185177079</v>
       </c>
+      <c r="D170">
+        <v>0.1130726626556271</v>
+      </c>
+      <c r="E170">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -2926,6 +3950,12 @@
       <c r="C171">
         <v>0.5934724744638877</v>
       </c>
+      <c r="D171">
+        <v>0.1796546191237582</v>
+      </c>
+      <c r="E171">
+        <v>18</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -2941,6 +3971,12 @@
       <c r="C172">
         <v>-0.04920041551103321</v>
       </c>
+      <c r="D172">
+        <v>0.014893836344053</v>
+      </c>
+      <c r="E172">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -2956,6 +3992,12 @@
       <c r="C173">
         <v>0.01629103798449776</v>
       </c>
+      <c r="D173">
+        <v>0.00493158545706691</v>
+      </c>
+      <c r="E173">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -2971,6 +4013,12 @@
       <c r="C174">
         <v>-0.09215585368860246</v>
       </c>
+      <c r="D174">
+        <v>0.02789720754851637</v>
+      </c>
+      <c r="E174">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -2986,6 +4034,12 @@
       <c r="C175">
         <v>-0.01187305208842642</v>
       </c>
+      <c r="D175">
+        <v>0.003594182952983077</v>
+      </c>
+      <c r="E175">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -3001,6 +4055,12 @@
       <c r="C176">
         <v>-0.02584229740015848</v>
       </c>
+      <c r="D176">
+        <v>0.007822920685415647</v>
+      </c>
+      <c r="E176">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3016,6 +4076,12 @@
       <c r="C177">
         <v>0.02854700495437048</v>
       </c>
+      <c r="D177">
+        <v>0.008641683520089755</v>
+      </c>
+      <c r="E177">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -3031,6 +4097,12 @@
       <c r="C178">
         <v>-0.0372252788685789</v>
       </c>
+      <c r="D178">
+        <v>0.01126875059024691</v>
+      </c>
+      <c r="E178">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3046,6 +4118,12 @@
       <c r="C179">
         <v>0.05111722383997373</v>
       </c>
+      <c r="D179">
+        <v>0.01547408814188092</v>
+      </c>
+      <c r="E179">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -3061,6 +4139,12 @@
       <c r="C180">
         <v>0.1806800306692093</v>
       </c>
+      <c r="D180">
+        <v>0.05469504229740128</v>
+      </c>
+      <c r="E180">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -3076,6 +4160,12 @@
       <c r="C181">
         <v>-0.04803856775231465</v>
       </c>
+      <c r="D181">
+        <v>0.01454212446936002</v>
+      </c>
+      <c r="E181">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -3091,6 +4181,12 @@
       <c r="C182">
         <v>0.03312923164770905</v>
       </c>
+      <c r="D182">
+        <v>0.01002880461963883</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3106,6 +4202,12 @@
       <c r="C183">
         <v>0.1047234278783303</v>
       </c>
+      <c r="D183">
+        <v>0.03170163463067336</v>
+      </c>
+      <c r="E183">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -3121,6 +4223,12 @@
       <c r="C184">
         <v>0.0949558698520719</v>
       </c>
+      <c r="D184">
+        <v>0.02874482198563561</v>
+      </c>
+      <c r="E184">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -3136,6 +4244,12 @@
       <c r="C185">
         <v>-0.01272498297738032</v>
       </c>
+      <c r="D185">
+        <v>0.003852077507423936</v>
+      </c>
+      <c r="E185">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -3151,6 +4265,12 @@
       <c r="C186">
         <v>-0.01934594281344517</v>
       </c>
+      <c r="D186">
+        <v>0.005629980079320118</v>
+      </c>
+      <c r="E186">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -3166,6 +4286,12 @@
       <c r="C187">
         <v>-0.01354721308775794</v>
       </c>
+      <c r="D187">
+        <v>0.003942456594122411</v>
+      </c>
+      <c r="E187">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3181,6 +4307,12 @@
       <c r="C188">
         <v>0.01007561055988093</v>
       </c>
+      <c r="D188">
+        <v>0.002932164500129382</v>
+      </c>
+      <c r="E188">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -3196,6 +4328,12 @@
       <c r="C189">
         <v>0.02986650438909474</v>
       </c>
+      <c r="D189">
+        <v>0.008691632471521096</v>
+      </c>
+      <c r="E189">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -3211,6 +4349,12 @@
       <c r="C190">
         <v>0.07160171137218328</v>
       </c>
+      <c r="D190">
+        <v>0.02083724802445194</v>
+      </c>
+      <c r="E190">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -3226,6 +4370,12 @@
       <c r="C191">
         <v>-0.1429442020540218</v>
       </c>
+      <c r="D191">
+        <v>0.04159905866459741</v>
+      </c>
+      <c r="E191">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -3241,6 +4391,12 @@
       <c r="C192">
         <v>-0.04379797735035258</v>
       </c>
+      <c r="D192">
+        <v>0.01274591486053746</v>
+      </c>
+      <c r="E192">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -3256,6 +4412,12 @@
       <c r="C193">
         <v>-0.06649692306068875</v>
       </c>
+      <c r="D193">
+        <v>0.01935167263637178</v>
+      </c>
+      <c r="E193">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -3271,6 +4433,12 @@
       <c r="C194">
         <v>0.1433994288646649</v>
       </c>
+      <c r="D194">
+        <v>0.04173153697801989</v>
+      </c>
+      <c r="E194">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -3286,6 +4454,12 @@
       <c r="C195">
         <v>0.02859053267677496</v>
       </c>
+      <c r="D195">
+        <v>0.008320304209496886</v>
+      </c>
+      <c r="E195">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -3301,6 +4475,12 @@
       <c r="C196">
         <v>-0.5053437322452923</v>
       </c>
+      <c r="D196">
+        <v>0.147063142550643</v>
+      </c>
+      <c r="E196">
+        <v>14.7</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -3316,6 +4496,12 @@
       <c r="C197">
         <v>0.4646975701635826</v>
       </c>
+      <c r="D197">
+        <v>0.1352344565554687</v>
+      </c>
+      <c r="E197">
+        <v>13.5</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -3331,6 +4517,12 @@
       <c r="C198">
         <v>-0.08716392671709389</v>
       </c>
+      <c r="D198">
+        <v>0.02536610263892156</v>
+      </c>
+      <c r="E198">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -3346,6 +4538,12 @@
       <c r="C199">
         <v>0.2211348900416766</v>
       </c>
+      <c r="D199">
+        <v>0.06435380471155099</v>
+      </c>
+      <c r="E199">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -3361,6 +4559,12 @@
       <c r="C200">
         <v>-0.305191249738226</v>
       </c>
+      <c r="D200">
+        <v>0.08881555543598955</v>
+      </c>
+      <c r="E200">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -3376,6 +4580,12 @@
       <c r="C201">
         <v>0.1428024821387862</v>
       </c>
+      <c r="D201">
+        <v>0.0415578158930606</v>
+      </c>
+      <c r="E201">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -3391,6 +4601,12 @@
       <c r="C202">
         <v>-0.007130957205334566</v>
       </c>
+      <c r="D202">
+        <v>0.002075223079053875</v>
+      </c>
+      <c r="E202">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -3406,6 +4622,12 @@
       <c r="C203">
         <v>-0.3899905822625914</v>
       </c>
+      <c r="D203">
+        <v>0.1134935231864173</v>
+      </c>
+      <c r="E203">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -3421,6 +4643,12 @@
       <c r="C204">
         <v>0.300366196737938</v>
       </c>
+      <c r="D204">
+        <v>0.08741138751637771</v>
+      </c>
+      <c r="E204">
+        <v>8.699999999999999</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -3436,6 +4664,12 @@
       <c r="C205">
         <v>0.03372690600708419</v>
       </c>
+      <c r="D205">
+        <v>0.009815071345347958</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -3451,6 +4685,12 @@
       <c r="C206">
         <v>0.08333087826419021</v>
       </c>
+      <c r="D206">
+        <v>0.0242506239754615</v>
+      </c>
+      <c r="E206">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -3466,6 +4706,12 @@
       <c r="C207">
         <v>-0.1498622134497491</v>
       </c>
+      <c r="D207">
+        <v>0.04361231109287327</v>
+      </c>
+      <c r="E207">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -3481,6 +4727,12 @@
       <c r="C208">
         <v>0.1758288280556599</v>
       </c>
+      <c r="D208">
+        <v>0.05116901300026543</v>
+      </c>
+      <c r="E208">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -3496,6 +4748,12 @@
       <c r="C209">
         <v>-0.3320165784960777</v>
       </c>
+      <c r="D209">
+        <v>0.112275604027467</v>
+      </c>
+      <c r="E209">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -3511,6 +4769,12 @@
       <c r="C210">
         <v>0.3680057090887076</v>
       </c>
+      <c r="D210">
+        <v>0.1244457835829997</v>
+      </c>
+      <c r="E210">
+        <v>12.4</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -3526,6 +4790,12 @@
       <c r="C211">
         <v>-0.07249426683203812</v>
       </c>
+      <c r="D211">
+        <v>0.0245148529448857</v>
+      </c>
+      <c r="E211">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -3541,6 +4811,12 @@
       <c r="C212">
         <v>-0.4520185710871833</v>
       </c>
+      <c r="D212">
+        <v>0.1528557951242352</v>
+      </c>
+      <c r="E212">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -3556,6 +4832,12 @@
       <c r="C213">
         <v>0.639789002466491</v>
       </c>
+      <c r="D213">
+        <v>0.2163527406596187</v>
+      </c>
+      <c r="E213">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -3571,6 +4853,12 @@
       <c r="C214">
         <v>-0.238541415804</v>
       </c>
+      <c r="D214">
+        <v>0.0806657958656051</v>
+      </c>
+      <c r="E214">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -3586,6 +4874,12 @@
       <c r="C215">
         <v>-0.1782689515755214</v>
       </c>
+      <c r="D215">
+        <v>0.06028390000326859</v>
+      </c>
+      <c r="E215">
+        <v>6</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -3601,6 +4895,12 @@
       <c r="C216">
         <v>0.05997518105996218</v>
       </c>
+      <c r="D216">
+        <v>0.020281365800062</v>
+      </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -3616,6 +4916,12 @@
       <c r="C217">
         <v>0.1130102837993377</v>
       </c>
+      <c r="D217">
+        <v>0.0382158563658471</v>
+      </c>
+      <c r="E217">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -3631,6 +4937,12 @@
       <c r="C218">
         <v>-0.00545217941161092</v>
       </c>
+      <c r="D218">
+        <v>0.001843723405251486</v>
+      </c>
+      <c r="E218">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -3646,6 +4958,12 @@
       <c r="C219">
         <v>-0.0233561066770284</v>
       </c>
+      <c r="D219">
+        <v>0.007898162786844985</v>
+      </c>
+      <c r="E219">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -3661,6 +4979,12 @@
       <c r="C220">
         <v>-0.005288088711722263</v>
       </c>
+      <c r="D220">
+        <v>0.001788234060325577</v>
+      </c>
+      <c r="E220">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -3676,6 +5000,12 @@
       <c r="C221">
         <v>0.0287661565118152</v>
       </c>
+      <c r="D221">
+        <v>0.009727639543008117</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -3691,6 +5021,12 @@
       <c r="C222">
         <v>-0.02339920916783362</v>
       </c>
+      <c r="D222">
+        <v>0.007912738439097547</v>
+      </c>
+      <c r="E222">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -3706,6 +5042,12 @@
       <c r="C223">
         <v>0.05914608562127838</v>
       </c>
+      <c r="D223">
+        <v>0.02000099669440982</v>
+      </c>
+      <c r="E223">
+        <v>2</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -3721,6 +5063,12 @@
       <c r="C224">
         <v>0.003686322668963807</v>
       </c>
+      <c r="D224">
+        <v>0.001246576620278451</v>
+      </c>
+      <c r="E224">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -3736,6 +5084,12 @@
       <c r="C225">
         <v>0.02394596770723097</v>
       </c>
+      <c r="D225">
+        <v>0.00809763175239557</v>
+      </c>
+      <c r="E225">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -3751,6 +5105,12 @@
       <c r="C226">
         <v>0.1029097101780843</v>
       </c>
+      <c r="D226">
+        <v>0.03480021968442902</v>
+      </c>
+      <c r="E226">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -3766,6 +5126,12 @@
       <c r="C227">
         <v>-0.04888953409355887</v>
       </c>
+      <c r="D227">
+        <v>0.01653261411173963</v>
+      </c>
+      <c r="E227">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -3781,6 +5147,12 @@
       <c r="C228">
         <v>0.04055264341007302</v>
       </c>
+      <c r="D228">
+        <v>0.01371338911568903</v>
+      </c>
+      <c r="E228">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -3796,6 +5168,12 @@
       <c r="C229">
         <v>-0.04838337211624245</v>
       </c>
+      <c r="D229">
+        <v>0.01636144903921115</v>
+      </c>
+      <c r="E229">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -3811,6 +5189,12 @@
       <c r="C230">
         <v>0.08566184018593614</v>
       </c>
+      <c r="D230">
+        <v>0.02896763436496273</v>
+      </c>
+      <c r="E230">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -3826,6 +5210,12 @@
       <c r="C231">
         <v>-0.003599735305064869</v>
       </c>
+      <c r="D231">
+        <v>0.001217296008367639</v>
+      </c>
+      <c r="E231">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -3841,6 +5231,12 @@
       <c r="C232">
         <v>-0.1225813120104403</v>
       </c>
+      <c r="D232">
+        <v>0.03591191640755201</v>
+      </c>
+      <c r="E232">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -3856,6 +5252,12 @@
       <c r="C233">
         <v>0.1126984517879791</v>
       </c>
+      <c r="D233">
+        <v>0.03301659374901889</v>
+      </c>
+      <c r="E233">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -3871,6 +5273,12 @@
       <c r="C234">
         <v>-0.000441648868570941</v>
       </c>
+      <c r="D234">
+        <v>0.0001293872368429106</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -3886,6 +5294,12 @@
       <c r="C235">
         <v>0.1555505950783181</v>
       </c>
+      <c r="D235">
+        <v>0.04557073077437578</v>
+      </c>
+      <c r="E235">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -3901,6 +5315,12 @@
       <c r="C236">
         <v>-0.1901933520321243</v>
       </c>
+      <c r="D236">
+        <v>0.0557198128118259</v>
+      </c>
+      <c r="E236">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -3916,6 +5336,12 @@
       <c r="C237">
         <v>0.02867056120434572</v>
       </c>
+      <c r="D237">
+        <v>0.008399443442409674</v>
+      </c>
+      <c r="E237">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -3931,6 +5357,12 @@
       <c r="C238">
         <v>-0.2574883128050836</v>
       </c>
+      <c r="D238">
+        <v>0.07543481639836096</v>
+      </c>
+      <c r="E238">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -3946,6 +5378,12 @@
       <c r="C239">
         <v>0.2792438517409665</v>
       </c>
+      <c r="D239">
+        <v>0.0818084069796082</v>
+      </c>
+      <c r="E239">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -3961,6 +5399,12 @@
       <c r="C240">
         <v>-0.02652871550474157</v>
       </c>
+      <c r="D240">
+        <v>0.007771959672979079</v>
+      </c>
+      <c r="E240">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -3976,6 +5420,12 @@
       <c r="C241">
         <v>0.03373503119070644</v>
       </c>
+      <c r="D241">
+        <v>0.009883151030587976</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -3991,6 +5441,12 @@
       <c r="C242">
         <v>-0.3427441127077784</v>
       </c>
+      <c r="D242">
+        <v>0.100411699979961</v>
+      </c>
+      <c r="E242">
+        <v>10</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -4006,6 +5462,12 @@
       <c r="C243">
         <v>0.3242088949586505</v>
       </c>
+      <c r="D243">
+        <v>0.09498154770401078</v>
+      </c>
+      <c r="E243">
+        <v>9.5</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -4021,6 +5483,12 @@
       <c r="C244">
         <v>0.07194211893172524</v>
       </c>
+      <c r="D244">
+        <v>0.02107645381571896</v>
+      </c>
+      <c r="E244">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -4036,6 +5504,12 @@
       <c r="C245">
         <v>-0.2266271294200308</v>
       </c>
+      <c r="D245">
+        <v>0.06639359943155485</v>
+      </c>
+      <c r="E245">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -4051,6 +5525,12 @@
       <c r="C246">
         <v>0.5378637712042752</v>
       </c>
+      <c r="D246">
+        <v>0.1575747434363688</v>
+      </c>
+      <c r="E246">
+        <v>15.8</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -4066,6 +5546,12 @@
       <c r="C247">
         <v>-0.4178861321347508</v>
       </c>
+      <c r="D247">
+        <v>0.1224256095726912</v>
+      </c>
+      <c r="E247">
+        <v>12.2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -4081,6 +5567,12 @@
       <c r="C248">
         <v>0.002319343598404208</v>
       </c>
+      <c r="D248">
+        <v>0.0006794842709726323</v>
+      </c>
+      <c r="E248">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -4096,6 +5588,12 @@
       <c r="C249">
         <v>-0.01388606584809551</v>
       </c>
+      <c r="D249">
+        <v>0.004068117951977021</v>
+      </c>
+      <c r="E249">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -4111,6 +5609,12 @@
       <c r="C250">
         <v>0.008732688592356262</v>
       </c>
+      <c r="D250">
+        <v>0.002558363730967172</v>
+      </c>
+      <c r="E250">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -4126,6 +5630,12 @@
       <c r="C251">
         <v>0.03717597436431009</v>
       </c>
+      <c r="D251">
+        <v>0.01089122364448744</v>
+      </c>
+      <c r="E251">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -4141,6 +5651,12 @@
       <c r="C252">
         <v>-0.05870874717101138</v>
       </c>
+      <c r="D252">
+        <v>0.0171995517605318</v>
+      </c>
+      <c r="E252">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -4156,6 +5672,12 @@
       <c r="C253">
         <v>0.1229314772967487</v>
       </c>
+      <c r="D253">
+        <v>0.0360145022445323</v>
+      </c>
+      <c r="E253">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -4171,6 +5693,12 @@
       <c r="C254">
         <v>-0.04122992005595377</v>
       </c>
+      <c r="D254">
+        <v>0.01207888395266447</v>
+      </c>
+      <c r="E254">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -4186,6 +5714,12 @@
       <c r="C255">
         <v>0.2588366742688477</v>
       </c>
+      <c r="D255">
+        <v>0.07157916621533196</v>
+      </c>
+      <c r="E255">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -4201,6 +5735,12 @@
       <c r="C256">
         <v>-0.2284823944793684</v>
       </c>
+      <c r="D256">
+        <v>0.06318493829328307</v>
+      </c>
+      <c r="E256">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -4216,6 +5756,12 @@
       <c r="C257">
         <v>-0.0004935743385528352</v>
       </c>
+      <c r="D257">
+        <v>0.0001364939482347074</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -4231,6 +5777,12 @@
       <c r="C258">
         <v>-0.2434067589913665</v>
       </c>
+      <c r="D258">
+        <v>0.06731214928871151</v>
+      </c>
+      <c r="E258">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -4246,6 +5798,12 @@
       <c r="C259">
         <v>0.2387147405551172</v>
       </c>
+      <c r="D259">
+        <v>0.06601460994857591</v>
+      </c>
+      <c r="E259">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -4261,6 +5819,12 @@
       <c r="C260">
         <v>-0.04748116793582993</v>
       </c>
+      <c r="D260">
+        <v>0.01313052882238299</v>
+      </c>
+      <c r="E260">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -4276,6 +5840,12 @@
       <c r="C261">
         <v>0.4931444043647405</v>
       </c>
+      <c r="D261">
+        <v>0.136375053449808</v>
+      </c>
+      <c r="E261">
+        <v>13.6</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -4291,6 +5861,12 @@
       <c r="C262">
         <v>-0.4668967385647326</v>
       </c>
+      <c r="D262">
+        <v>0.1291164760539641</v>
+      </c>
+      <c r="E262">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -4306,6 +5882,12 @@
       <c r="C263">
         <v>0.04220172769055409</v>
       </c>
+      <c r="D263">
+        <v>0.01167054278327943</v>
+      </c>
+      <c r="E263">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -4321,6 +5903,12 @@
       <c r="C264">
         <v>-0.0157898108013238</v>
       </c>
+      <c r="D264">
+        <v>0.004366543091504355</v>
+      </c>
+      <c r="E264">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -4336,6 +5924,12 @@
       <c r="C265">
         <v>-0.1339303136716061</v>
       </c>
+      <c r="D265">
+        <v>0.03703733333250155</v>
+      </c>
+      <c r="E265">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -4351,6 +5945,12 @@
       <c r="C266">
         <v>0.1126296060059426</v>
       </c>
+      <c r="D266">
+        <v>0.03114679676610655</v>
+      </c>
+      <c r="E266">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -4366,6 +5966,12 @@
       <c r="C267">
         <v>0.05242401918657073</v>
       </c>
+      <c r="D267">
+        <v>0.01449743392674601</v>
+      </c>
+      <c r="E267">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -4381,6 +5987,12 @@
       <c r="C268">
         <v>-0.1882221330403426</v>
       </c>
+      <c r="D268">
+        <v>0.05205129212989786</v>
+      </c>
+      <c r="E268">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -4396,6 +6008,12 @@
       <c r="C269">
         <v>0.341414996089542</v>
       </c>
+      <c r="D269">
+        <v>0.09441552601667584</v>
+      </c>
+      <c r="E269">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -4411,6 +6029,12 @@
       <c r="C270">
         <v>-0.2353223521253576</v>
       </c>
+      <c r="D270">
+        <v>0.0650764726619389</v>
+      </c>
+      <c r="E270">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -4426,6 +6050,12 @@
       <c r="C271">
         <v>0.01043723763974157</v>
       </c>
+      <c r="D271">
+        <v>0.002886332742275914</v>
+      </c>
+      <c r="E271">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -4441,6 +6071,12 @@
       <c r="C272">
         <v>-0.04262256719530613</v>
       </c>
+      <c r="D272">
+        <v>0.01178692250785175</v>
+      </c>
+      <c r="E272">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -4456,6 +6092,12 @@
       <c r="C273">
         <v>0.07547237711532377</v>
       </c>
+      <c r="D273">
+        <v>0.02087126888592605</v>
+      </c>
+      <c r="E273">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -4471,6 +6113,12 @@
       <c r="C274">
         <v>-0.07812721495493623</v>
       </c>
+      <c r="D274">
+        <v>0.02160544258651607</v>
+      </c>
+      <c r="E274">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -4486,6 +6134,12 @@
       <c r="C275">
         <v>0.1769991640949921</v>
       </c>
+      <c r="D275">
+        <v>0.04894767181860321</v>
+      </c>
+      <c r="E275">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -4501,6 +6155,12 @@
       <c r="C276">
         <v>-0.01932140572427639</v>
       </c>
+      <c r="D276">
+        <v>0.005343176795786462</v>
+      </c>
+      <c r="E276">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -4516,6 +6176,12 @@
       <c r="C277">
         <v>-0.1137181616638795</v>
       </c>
+      <c r="D277">
+        <v>0.03144782793409773</v>
+      </c>
+      <c r="E277">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -4531,6 +6197,12 @@
       <c r="C278">
         <v>0.04148594539103991</v>
       </c>
+      <c r="D278">
+        <v>0.01279660898890397</v>
+      </c>
+      <c r="E278">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -4546,6 +6218,12 @@
       <c r="C279">
         <v>-0.03075706340712701</v>
       </c>
+      <c r="D279">
+        <v>0.009487215739163011</v>
+      </c>
+      <c r="E279">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -4561,6 +6239,12 @@
       <c r="C280">
         <v>-0.004566981106224456</v>
       </c>
+      <c r="D280">
+        <v>0.001408714949730631</v>
+      </c>
+      <c r="E280">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -4576,6 +6260,12 @@
       <c r="C281">
         <v>-0.02562254407107539</v>
       </c>
+      <c r="D281">
+        <v>0.007903439940634137</v>
+      </c>
+      <c r="E281">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -4591,6 +6281,12 @@
       <c r="C282">
         <v>-0.04287995580361417</v>
       </c>
+      <c r="D282">
+        <v>0.01322660054406873</v>
+      </c>
+      <c r="E282">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -4606,6 +6302,12 @@
       <c r="C283">
         <v>0.05927140340635109</v>
       </c>
+      <c r="D283">
+        <v>0.01828264889387045</v>
+      </c>
+      <c r="E283">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -4621,6 +6323,12 @@
       <c r="C284">
         <v>0.07108066261708115</v>
       </c>
+      <c r="D284">
+        <v>0.02192529150798728</v>
+      </c>
+      <c r="E284">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -4636,6 +6344,12 @@
       <c r="C285">
         <v>-0.01216889588173086</v>
       </c>
+      <c r="D285">
+        <v>0.003753574878368954</v>
+      </c>
+      <c r="E285">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -4651,6 +6365,12 @@
       <c r="C286">
         <v>-0.06001050173201496</v>
       </c>
+      <c r="D286">
+        <v>0.01851062856719657</v>
+      </c>
+      <c r="E286">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -4666,6 +6386,12 @@
       <c r="C287">
         <v>0.03222402181002776</v>
       </c>
+      <c r="D287">
+        <v>0.009939708575181694</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -4681,6 +6407,12 @@
       <c r="C288">
         <v>-0.3347099823210874</v>
       </c>
+      <c r="D288">
+        <v>0.1032434654212071</v>
+      </c>
+      <c r="E288">
+        <v>10.3</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -4696,6 +6428,12 @@
       <c r="C289">
         <v>0.3477497670590847</v>
       </c>
+      <c r="D289">
+        <v>0.1072656716170353</v>
+      </c>
+      <c r="E289">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -4711,6 +6449,12 @@
       <c r="C290">
         <v>0.0762724025520944</v>
       </c>
+      <c r="D290">
+        <v>0.0235267173714748</v>
+      </c>
+      <c r="E290">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -4726,6 +6470,12 @@
       <c r="C291">
         <v>-0.2352937885179487</v>
       </c>
+      <c r="D291">
+        <v>0.07257789549692549</v>
+      </c>
+      <c r="E291">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -4741,6 +6491,12 @@
       <c r="C292">
         <v>-0.2005870767454331</v>
       </c>
+      <c r="D292">
+        <v>0.06187238509678417</v>
+      </c>
+      <c r="E292">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -4756,6 +6512,12 @@
       <c r="C293">
         <v>0.3495933502825787</v>
       </c>
+      <c r="D293">
+        <v>0.1078343368222556</v>
+      </c>
+      <c r="E293">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -4771,6 +6533,12 @@
       <c r="C294">
         <v>-0.05398975755712472</v>
       </c>
+      <c r="D294">
+        <v>0.01665349096789452</v>
+      </c>
+      <c r="E294">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -4786,6 +6554,12 @@
       <c r="C295">
         <v>0.5048660016836072</v>
       </c>
+      <c r="D295">
+        <v>0.1557291934519058</v>
+      </c>
+      <c r="E295">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -4801,6 +6575,12 @@
       <c r="C296">
         <v>-0.4972124235711519</v>
       </c>
+      <c r="D296">
+        <v>0.1533683976318285</v>
+      </c>
+      <c r="E296">
+        <v>15.3</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -4816,6 +6596,12 @@
       <c r="C297">
         <v>-0.04371089719507624</v>
       </c>
+      <c r="D297">
+        <v>0.01348290980685662</v>
+      </c>
+      <c r="E297">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -4831,6 +6617,12 @@
       <c r="C298">
         <v>0.09357763119976234</v>
       </c>
+      <c r="D298">
+        <v>0.02886462741258511</v>
+      </c>
+      <c r="E298">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -4846,6 +6638,12 @@
       <c r="C299">
         <v>0.03521441271694602</v>
       </c>
+      <c r="D299">
+        <v>0.01086211405007468</v>
+      </c>
+      <c r="E299">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -4861,6 +6659,12 @@
       <c r="C300">
         <v>-0.08910288289259029</v>
       </c>
+      <c r="D300">
+        <v>0.02748436226806684</v>
+      </c>
+      <c r="E300">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -4876,6 +6680,12 @@
       <c r="C301">
         <v>0.02728213472001439</v>
       </c>
+      <c r="D301">
+        <v>0.00890839201677724</v>
+      </c>
+      <c r="E301">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -4891,6 +6701,12 @@
       <c r="C302">
         <v>-0.01320870606725213</v>
       </c>
+      <c r="D302">
+        <v>0.004313017763787505</v>
+      </c>
+      <c r="E302">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -4906,6 +6722,12 @@
       <c r="C303">
         <v>-0.01391446796971156</v>
       </c>
+      <c r="D303">
+        <v>0.004543469074219706</v>
+      </c>
+      <c r="E303">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -4921,6 +6743,12 @@
       <c r="C304">
         <v>0.08132224724501066</v>
       </c>
+      <c r="D304">
+        <v>0.02655402392732762</v>
+      </c>
+      <c r="E304">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -4936,6 +6764,12 @@
       <c r="C305">
         <v>0.03100956744124084</v>
       </c>
+      <c r="D305">
+        <v>0.01012550468914038</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -4951,6 +6785,12 @@
       <c r="C306">
         <v>-0.0644844364741943</v>
       </c>
+      <c r="D306">
+        <v>0.02105600038224532</v>
+      </c>
+      <c r="E306">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -4966,6 +6806,12 @@
       <c r="C307">
         <v>-0.01161376918442872</v>
       </c>
+      <c r="D307">
+        <v>0.003792225562589837</v>
+      </c>
+      <c r="E307">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -4981,6 +6827,12 @@
       <c r="C308">
         <v>-0.03861871942706216</v>
       </c>
+      <c r="D308">
+        <v>0.0126101089732475</v>
+      </c>
+      <c r="E308">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -4996,6 +6848,12 @@
       <c r="C309">
         <v>0.03858592248395002</v>
       </c>
+      <c r="D309">
+        <v>0.01259939983962605</v>
+      </c>
+      <c r="E309">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -5011,6 +6869,12 @@
       <c r="C310">
         <v>-0.02369082556505736</v>
       </c>
+      <c r="D310">
+        <v>0.007735727555798381</v>
+      </c>
+      <c r="E310">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -5026,6 +6890,12 @@
       <c r="C311">
         <v>0.04080254014575476</v>
       </c>
+      <c r="D311">
+        <v>0.01332318847586435</v>
+      </c>
+      <c r="E311">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -5041,6 +6911,12 @@
       <c r="C312">
         <v>-0.0869315742470618</v>
       </c>
+      <c r="D312">
+        <v>0.0283856285432196</v>
+      </c>
+      <c r="E312">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -5056,6 +6932,12 @@
       <c r="C313">
         <v>0.2271957460417409</v>
       </c>
+      <c r="D313">
+        <v>0.07418586525779482</v>
+      </c>
+      <c r="E313">
+        <v>7.4</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -5071,6 +6953,12 @@
       <c r="C314">
         <v>-0.7055055268648434</v>
       </c>
+      <c r="D314">
+        <v>0.23036759651745</v>
+      </c>
+      <c r="E314">
+        <v>23</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -5086,6 +6974,12 @@
       <c r="C315">
         <v>0.05317090871024618</v>
       </c>
+      <c r="D315">
+        <v>0.01736181217269858</v>
+      </c>
+      <c r="E315">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -5101,6 +6995,12 @@
       <c r="C316">
         <v>0.3692859004231301</v>
       </c>
+      <c r="D316">
+        <v>0.1205823371594315</v>
+      </c>
+      <c r="E316">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -5116,6 +7016,12 @@
       <c r="C317">
         <v>0.02160807931250163</v>
       </c>
+      <c r="D317">
+        <v>0.007055651737697942</v>
+      </c>
+      <c r="E317">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -5131,6 +7037,12 @@
       <c r="C318">
         <v>-0.1865981464036197</v>
       </c>
+      <c r="D318">
+        <v>0.06092959567962133</v>
+      </c>
+      <c r="E318">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -5146,6 +7058,12 @@
       <c r="C319">
         <v>0.1767329237386461</v>
       </c>
+      <c r="D319">
+        <v>0.0577083202283309</v>
+      </c>
+      <c r="E319">
+        <v>5.8</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -5161,6 +7079,12 @@
       <c r="C320">
         <v>0.1445481858691381</v>
       </c>
+      <c r="D320">
+        <v>0.04719908901012799</v>
+      </c>
+      <c r="E320">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -5176,6 +7100,12 @@
       <c r="C321">
         <v>-0.2831362037529928</v>
       </c>
+      <c r="D321">
+        <v>0.09245201385665044</v>
+      </c>
+      <c r="E321">
+        <v>9.199999999999999</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -5191,6 +7121,12 @@
       <c r="C322">
         <v>-0.09218031881153238</v>
       </c>
+      <c r="D322">
+        <v>0.03009949274981817</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -5206,6 +7142,12 @@
       <c r="C323">
         <v>0.3310938227121968</v>
       </c>
+      <c r="D323">
+        <v>0.1081115388265349</v>
+      </c>
+      <c r="E323">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -5221,6 +7163,12 @@
       <c r="C324">
         <v>0.01247716859868767</v>
       </c>
+      <c r="D324">
+        <v>0.004955199436775499</v>
+      </c>
+      <c r="E324">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -5236,6 +7184,12 @@
       <c r="C325">
         <v>-0.02061098064107111</v>
       </c>
+      <c r="D325">
+        <v>0.008185472437614433</v>
+      </c>
+      <c r="E325">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -5251,6 +7205,12 @@
       <c r="C326">
         <v>0.01190304833117093</v>
       </c>
+      <c r="D326">
+        <v>0.004727192545329022</v>
+      </c>
+      <c r="E326">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -5266,6 +7226,12 @@
       <c r="C327">
         <v>-0.0114788336739324</v>
       </c>
+      <c r="D327">
+        <v>0.004558719368582707</v>
+      </c>
+      <c r="E327">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -5281,6 +7247,12 @@
       <c r="C328">
         <v>-0.0308323952276853</v>
       </c>
+      <c r="D328">
+        <v>0.01224481870692482</v>
+      </c>
+      <c r="E328">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -5296,6 +7268,12 @@
       <c r="C329">
         <v>0.006878305749257251</v>
       </c>
+      <c r="D329">
+        <v>0.002731659551212127</v>
+      </c>
+      <c r="E329">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -5311,6 +7289,12 @@
       <c r="C330">
         <v>0.02362063456591906</v>
       </c>
+      <c r="D330">
+        <v>0.009380730425461479</v>
+      </c>
+      <c r="E330">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -5326,6 +7310,12 @@
       <c r="C331">
         <v>-0.006737445065051891</v>
       </c>
+      <c r="D331">
+        <v>0.002675717950558303</v>
+      </c>
+      <c r="E331">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -5341,6 +7331,12 @@
       <c r="C332">
         <v>0.01061754462260804</v>
       </c>
+      <c r="D332">
+        <v>0.004216665881987018</v>
+      </c>
+      <c r="E332">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -5356,6 +7352,12 @@
       <c r="C333">
         <v>0.01388709543630664</v>
       </c>
+      <c r="D333">
+        <v>0.005515139668119251</v>
+      </c>
+      <c r="E333">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -5371,6 +7373,12 @@
       <c r="C334">
         <v>-0.006630340847993176</v>
       </c>
+      <c r="D334">
+        <v>0.00263318243844689</v>
+      </c>
+      <c r="E334">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -5386,6 +7394,12 @@
       <c r="C335">
         <v>0.04947259016240885</v>
       </c>
+      <c r="D335">
+        <v>0.01964761067141286</v>
+      </c>
+      <c r="E335">
+        <v>2</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -5401,6 +7415,12 @@
       <c r="C336">
         <v>0.02158021602277664</v>
       </c>
+      <c r="D336">
+        <v>0.008570395874333506</v>
+      </c>
+      <c r="E336">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -5416,6 +7436,12 @@
       <c r="C337">
         <v>-0.1075113167748923</v>
       </c>
+      <c r="D337">
+        <v>0.04269718823755986</v>
+      </c>
+      <c r="E337">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -5431,6 +7457,12 @@
       <c r="C338">
         <v>-0.1507020001423354</v>
       </c>
+      <c r="D338">
+        <v>0.0598499940366907</v>
+      </c>
+      <c r="E338">
+        <v>6</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -5446,6 +7478,12 @@
       <c r="C339">
         <v>0.1891607296287964</v>
       </c>
+      <c r="D339">
+        <v>0.07512354533826215</v>
+      </c>
+      <c r="E339">
+        <v>7.5</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -5461,6 +7499,12 @@
       <c r="C340">
         <v>0.003802949530646799</v>
       </c>
+      <c r="D340">
+        <v>0.00151030846648403</v>
+      </c>
+      <c r="E340">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -5476,6 +7520,12 @@
       <c r="C341">
         <v>-0.2169175799580861</v>
       </c>
+      <c r="D341">
+        <v>0.08614693802791647</v>
+      </c>
+      <c r="E341">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -5491,6 +7541,12 @@
       <c r="C342">
         <v>0.2004322360269475</v>
       </c>
+      <c r="D342">
+        <v>0.07959992647505341</v>
+      </c>
+      <c r="E342">
+        <v>8</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -5506,6 +7562,12 @@
       <c r="C343">
         <v>0.01301034899542829</v>
       </c>
+      <c r="D343">
+        <v>0.005166947413147855</v>
+      </c>
+      <c r="E343">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -5521,6 +7583,12 @@
       <c r="C344">
         <v>-0.1379046455457389</v>
       </c>
+      <c r="D344">
+        <v>0.05476763550416745</v>
+      </c>
+      <c r="E344">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -5536,6 +7604,12 @@
       <c r="C345">
         <v>0.7031107042491249</v>
       </c>
+      <c r="D345">
+        <v>0.2792343261316942</v>
+      </c>
+      <c r="E345">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -5551,6 +7625,12 @@
       <c r="C346">
         <v>-0.5687161309369669</v>
       </c>
+      <c r="D346">
+        <v>0.2258606854122659</v>
+      </c>
+      <c r="E346">
+        <v>22.6</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -5566,6 +7646,12 @@
       <c r="C347">
         <v>0.09597088981186999</v>
       </c>
+      <c r="D347">
+        <v>0.0311381182352754</v>
+      </c>
+      <c r="E347">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -5581,6 +7667,12 @@
       <c r="C348">
         <v>-0.1099847088438705</v>
       </c>
+      <c r="D348">
+        <v>0.03568495483126384</v>
+      </c>
+      <c r="E348">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -5596,6 +7688,12 @@
       <c r="C349">
         <v>0.005392779914455056</v>
       </c>
+      <c r="D349">
+        <v>0.001749707842891657</v>
+      </c>
+      <c r="E349">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -5611,6 +7709,12 @@
       <c r="C350">
         <v>-0.02576203119496374</v>
       </c>
+      <c r="D350">
+        <v>0.008358588473047768</v>
+      </c>
+      <c r="E350">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -5626,6 +7730,12 @@
       <c r="C351">
         <v>0.01796229456385373</v>
       </c>
+      <c r="D351">
+        <v>0.005827934418473469</v>
+      </c>
+      <c r="E351">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -5641,6 +7751,12 @@
       <c r="C352">
         <v>-0.01173386090612175</v>
       </c>
+      <c r="D352">
+        <v>0.003807095557489606</v>
+      </c>
+      <c r="E352">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -5656,6 +7772,12 @@
       <c r="C353">
         <v>0.1445125874364067</v>
       </c>
+      <c r="D353">
+        <v>0.04688765565163958</v>
+      </c>
+      <c r="E353">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -5671,6 +7793,12 @@
       <c r="C354">
         <v>-0.159249088757738</v>
       </c>
+      <c r="D354">
+        <v>0.05166896925014237</v>
+      </c>
+      <c r="E354">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -5686,6 +7814,12 @@
       <c r="C355">
         <v>0.01822768054855435</v>
       </c>
+      <c r="D355">
+        <v>0.005914039905103758</v>
+      </c>
+      <c r="E355">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -5701,6 +7835,12 @@
       <c r="C356">
         <v>-0.004947943355687351</v>
       </c>
+      <c r="D356">
+        <v>0.001605378938685032</v>
+      </c>
+      <c r="E356">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -5716,6 +7856,12 @@
       <c r="C357">
         <v>-0.1075736708751136</v>
       </c>
+      <c r="D357">
+        <v>0.03490268444189829</v>
+      </c>
+      <c r="E357">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -5731,6 +7877,12 @@
       <c r="C358">
         <v>0.06576987673881554</v>
       </c>
+      <c r="D358">
+        <v>0.02133928530023309</v>
+      </c>
+      <c r="E358">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -5746,6 +7898,12 @@
       <c r="C359">
         <v>-0.09036545255196825</v>
       </c>
+      <c r="D359">
+        <v>0.02931941291221971</v>
+      </c>
+      <c r="E359">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -5761,6 +7919,12 @@
       <c r="C360">
         <v>0.2720470544867791</v>
       </c>
+      <c r="D360">
+        <v>0.08826669591970389</v>
+      </c>
+      <c r="E360">
+        <v>8.800000000000001</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -5776,6 +7940,12 @@
       <c r="C361">
         <v>-0.007472828541591015</v>
       </c>
+      <c r="D361">
+        <v>0.002424587488311709</v>
+      </c>
+      <c r="E361">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -5791,6 +7961,12 @@
       <c r="C362">
         <v>-0.1488529742989053</v>
       </c>
+      <c r="D362">
+        <v>0.04829591058786298</v>
+      </c>
+      <c r="E362">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -5806,6 +7982,12 @@
       <c r="C363">
         <v>0.01565850817463595</v>
       </c>
+      <c r="D363">
+        <v>0.00508046220979745</v>
+      </c>
+      <c r="E363">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -5821,6 +8003,12 @@
       <c r="C364">
         <v>0.1657231011045248</v>
       </c>
+      <c r="D364">
+        <v>0.05376948704575778</v>
+      </c>
+      <c r="E364">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -5836,6 +8024,12 @@
       <c r="C365">
         <v>-0.1232180802340821</v>
       </c>
+      <c r="D365">
+        <v>0.03997857223761986</v>
+      </c>
+      <c r="E365">
+        <v>4</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -5851,6 +8045,12 @@
       <c r="C366">
         <v>0.2512264743557575</v>
       </c>
+      <c r="D366">
+        <v>0.08151137993672555</v>
+      </c>
+      <c r="E366">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -5866,6 +8066,12 @@
       <c r="C367">
         <v>-0.7696768186453117</v>
       </c>
+      <c r="D367">
+        <v>0.2497245553199415</v>
+      </c>
+      <c r="E367">
+        <v>25</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -5881,6 +8087,12 @@
       <c r="C368">
         <v>0.20865514185741</v>
       </c>
+      <c r="D368">
+        <v>0.06769895007007226</v>
+      </c>
+      <c r="E368">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -5896,6 +8108,12 @@
       <c r="C369">
         <v>0.2621192229590985</v>
       </c>
+      <c r="D369">
+        <v>0.08504557342584347</v>
+      </c>
+      <c r="E369">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -5911,6 +8129,12 @@
       <c r="C370">
         <v>-0.004775643646462119</v>
       </c>
+      <c r="D370">
+        <v>0.001519836235130831</v>
+      </c>
+      <c r="E370">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -5926,6 +8150,12 @@
       <c r="C371">
         <v>0.009857941638023754</v>
       </c>
+      <c r="D371">
+        <v>0.00313726442222563</v>
+      </c>
+      <c r="E371">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -5941,6 +8171,12 @@
       <c r="C372">
         <v>-0.002182315565825258</v>
       </c>
+      <c r="D372">
+        <v>0.0006945162828236537</v>
+      </c>
+      <c r="E372">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -5956,6 +8192,12 @@
       <c r="C373">
         <v>0.0009956339801625946</v>
       </c>
+      <c r="D373">
+        <v>0.0003168579383220203</v>
+      </c>
+      <c r="E373">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -5971,6 +8213,12 @@
       <c r="C374">
         <v>-0.002369082470796009</v>
       </c>
+      <c r="D374">
+        <v>0.0007539543671346697</v>
+      </c>
+      <c r="E374">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -5986,6 +8234,12 @@
       <c r="C375">
         <v>-0.002682000993742562</v>
       </c>
+      <c r="D375">
+        <v>0.0008535398774920246</v>
+      </c>
+      <c r="E375">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -6001,6 +8255,12 @@
       <c r="C376">
         <v>-0.00702022883808728</v>
       </c>
+      <c r="D376">
+        <v>0.002234169665263799</v>
+      </c>
+      <c r="E376">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -6016,6 +8276,12 @@
       <c r="C377">
         <v>0.01478546755177628</v>
       </c>
+      <c r="D377">
+        <v>0.004705436795977858</v>
+      </c>
+      <c r="E377">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -6031,6 +8297,12 @@
       <c r="C378">
         <v>-0.0006626120450875062</v>
       </c>
+      <c r="D378">
+        <v>0.0002108745690655091</v>
+      </c>
+      <c r="E378">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -6046,6 +8318,12 @@
       <c r="C379">
         <v>-0.4598506801821509</v>
       </c>
+      <c r="D379">
+        <v>0.1463462892605372</v>
+      </c>
+      <c r="E379">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -6061,6 +8339,12 @@
       <c r="C380">
         <v>0.2127911104241385</v>
       </c>
+      <c r="D380">
+        <v>0.06772022036776501</v>
+      </c>
+      <c r="E380">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -6076,6 +8360,12 @@
       <c r="C381">
         <v>0.2570399001322309</v>
       </c>
+      <c r="D381">
+        <v>0.08180228321365254</v>
+      </c>
+      <c r="E381">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -6091,6 +8381,12 @@
       <c r="C382">
         <v>-0.2675274798991674</v>
       </c>
+      <c r="D382">
+        <v>0.08513992834142987</v>
+      </c>
+      <c r="E382">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -6106,6 +8402,12 @@
       <c r="C383">
         <v>-0.002713460480573332</v>
       </c>
+      <c r="D383">
+        <v>0.000863551777785181</v>
+      </c>
+      <c r="E383">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -6121,6 +8423,12 @@
       <c r="C384">
         <v>0.1374907486687524</v>
       </c>
+      <c r="D384">
+        <v>0.04375607505322131</v>
+      </c>
+      <c r="E384">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -6136,6 +8444,12 @@
       <c r="C385">
         <v>0.132598118572847</v>
       </c>
+      <c r="D385">
+        <v>0.04219900818321786</v>
+      </c>
+      <c r="E385">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -6151,6 +8465,12 @@
       <c r="C386">
         <v>-0.5634691604685067</v>
       </c>
+      <c r="D386">
+        <v>0.1793226025340495</v>
+      </c>
+      <c r="E386">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -6166,6 +8486,12 @@
       <c r="C387">
         <v>0.2546666596530772</v>
       </c>
+      <c r="D387">
+        <v>0.08104700557111545</v>
+      </c>
+      <c r="E387">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -6181,6 +8507,12 @@
       <c r="C388">
         <v>0.3211542389855125</v>
       </c>
+      <c r="D388">
+        <v>0.1022065056796361</v>
+      </c>
+      <c r="E388">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -6196,6 +8528,12 @@
       <c r="C389">
         <v>-0.2278649525305634</v>
       </c>
+      <c r="D389">
+        <v>0.0725174316196886</v>
+      </c>
+      <c r="E389">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -6211,6 +8549,12 @@
       <c r="C390">
         <v>-0.01353777040083336</v>
       </c>
+      <c r="D390">
+        <v>0.004308360405682831</v>
+      </c>
+      <c r="E390">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -6226,6 +8570,12 @@
       <c r="C391">
         <v>0.1028705983627375</v>
       </c>
+      <c r="D391">
+        <v>0.03273830178621117</v>
+      </c>
+      <c r="E391">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -6241,6 +8591,12 @@
       <c r="C392">
         <v>0.1433035563294448</v>
       </c>
+      <c r="D392">
+        <v>0.04560598605257135</v>
+      </c>
+      <c r="E392">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -6256,6 +8612,12 @@
       <c r="C393">
         <v>0.002508766733214423</v>
       </c>
+      <c r="D393">
+        <v>0.001075538544528712</v>
+      </c>
+      <c r="E393">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -6271,6 +8633,12 @@
       <c r="C394">
         <v>-0.001371552749148446</v>
       </c>
+      <c r="D394">
+        <v>0.0005880011991682422</v>
+      </c>
+      <c r="E394">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -6286,6 +8654,12 @@
       <c r="C395">
         <v>-0.000971549707711226</v>
       </c>
+      <c r="D395">
+        <v>0.0004165150728183375</v>
+      </c>
+      <c r="E395">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -6301,6 +8675,12 @@
       <c r="C396">
         <v>0.0007945698508519366</v>
       </c>
+      <c r="D396">
+        <v>0.0003406416744918813</v>
+      </c>
+      <c r="E396">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -6316,6 +8696,12 @@
       <c r="C397">
         <v>-0.004358768564716219</v>
       </c>
+      <c r="D397">
+        <v>0.001868656633542702</v>
+      </c>
+      <c r="E397">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -6331,6 +8717,12 @@
       <c r="C398">
         <v>0.001363306028463182</v>
       </c>
+      <c r="D398">
+        <v>0.0005844657305869926</v>
+      </c>
+      <c r="E398">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -6346,6 +8738,12 @@
       <c r="C399">
         <v>0.002904847387107016</v>
       </c>
+      <c r="D399">
+        <v>0.00124534309604945</v>
+      </c>
+      <c r="E399">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -6361,6 +8759,12 @@
       <c r="C400">
         <v>0.001109099049376689</v>
       </c>
+      <c r="D400">
+        <v>0.0004754841339020689</v>
+      </c>
+      <c r="E400">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -6376,6 +8780,12 @@
       <c r="C401">
         <v>-0.00260653786185247</v>
       </c>
+      <c r="D401">
+        <v>0.001117454206116571</v>
+      </c>
+      <c r="E401">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -6391,6 +8801,12 @@
       <c r="C402">
         <v>0.3717705871774346</v>
       </c>
+      <c r="D402">
+        <v>0.1593825328348004</v>
+      </c>
+      <c r="E402">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -6406,6 +8822,12 @@
       <c r="C403">
         <v>-0.1711957080643967</v>
       </c>
+      <c r="D403">
+        <v>0.07339366400367772</v>
+      </c>
+      <c r="E403">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -6421,6 +8843,12 @@
       <c r="C404">
         <v>-0.2074334879588261</v>
       </c>
+      <c r="D404">
+        <v>0.08892923713154224</v>
+      </c>
+      <c r="E404">
+        <v>8.9</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -6436,6 +8864,12 @@
       <c r="C405">
         <v>-0.7161891708588118</v>
       </c>
+      <c r="D405">
+        <v>0.3070389320117294</v>
+      </c>
+      <c r="E405">
+        <v>30.7</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -6451,6 +8885,12 @@
       <c r="C406">
         <v>-0.01099114226384061</v>
       </c>
+      <c r="D406">
+        <v>0.004712035199068778</v>
+      </c>
+      <c r="E406">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -6466,6 +8906,12 @@
       <c r="C407">
         <v>0.3709144992938321</v>
       </c>
+      <c r="D407">
+        <v>0.1590155176379995</v>
+      </c>
+      <c r="E407">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -6481,6 +8927,12 @@
       <c r="C408">
         <v>0.3701425496923195</v>
       </c>
+      <c r="D408">
+        <v>0.1586845735371119</v>
+      </c>
+      <c r="E408">
+        <v>15.9</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -6496,6 +8948,12 @@
       <c r="C409">
         <v>0.03009037399257217</v>
       </c>
+      <c r="D409">
+        <v>0.01290010610385817</v>
+      </c>
+      <c r="E409">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -6511,6 +8969,12 @@
       <c r="C410">
         <v>-0.01714427778645899</v>
       </c>
+      <c r="D410">
+        <v>0.007349958580572442</v>
+      </c>
+      <c r="E410">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -6526,6 +8990,12 @@
       <c r="C411">
         <v>-0.0165596775667441</v>
       </c>
+      <c r="D411">
+        <v>0.007099333418368657</v>
+      </c>
+      <c r="E411">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -6541,6 +9011,12 @@
       <c r="C412">
         <v>0.008402408207777944</v>
       </c>
+      <c r="D412">
+        <v>0.003602213699139162</v>
+      </c>
+      <c r="E412">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -6556,6 +9032,12 @@
       <c r="C413">
         <v>0.006045837202109544</v>
       </c>
+      <c r="D413">
+        <v>0.002591923297899803</v>
+      </c>
+      <c r="E413">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -6571,6 +9053,12 @@
       <c r="C414">
         <v>-0.004680214034657568</v>
       </c>
+      <c r="D414">
+        <v>0.002006464181892602</v>
+      </c>
+      <c r="E414">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -6586,6 +9074,12 @@
       <c r="C415">
         <v>-0.013019013557986</v>
       </c>
+      <c r="D415">
+        <v>0.005581408071134149</v>
+      </c>
+      <c r="E415">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -6601,6 +9095,12 @@
       <c r="C416">
         <v>-0.001652095533515266</v>
       </c>
+      <c r="D416">
+        <v>0.000536792648057067</v>
+      </c>
+      <c r="E416">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -6616,6 +9116,12 @@
       <c r="C417">
         <v>0.001755079014255074</v>
       </c>
+      <c r="D417">
+        <v>0.0005702536521037465</v>
+      </c>
+      <c r="E417">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -6631,6 +9137,12 @@
       <c r="C418">
         <v>-0.0003061897293024339</v>
       </c>
+      <c r="D418">
+        <v>9.948601171411084E-05</v>
+      </c>
+      <c r="E418">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -6646,6 +9158,12 @@
       <c r="C419">
         <v>0.0001296842846222006</v>
       </c>
+      <c r="D419">
+        <v>4.21365285127406E-05</v>
+      </c>
+      <c r="E419">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -6661,6 +9179,12 @@
       <c r="C420">
         <v>-0.001805834545508686</v>
       </c>
+      <c r="D420">
+        <v>0.0005867449478384418</v>
+      </c>
+      <c r="E420">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -6676,6 +9200,12 @@
       <c r="C421">
         <v>0.001588557414373078</v>
       </c>
+      <c r="D421">
+        <v>0.000516148082089184</v>
+      </c>
+      <c r="E421">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -6691,6 +9221,12 @@
       <c r="C422">
         <v>-0.002300655720349078</v>
       </c>
+      <c r="D422">
+        <v>0.0007475203772060852</v>
+      </c>
+      <c r="E422">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -6706,6 +9242,12 @@
       <c r="C423">
         <v>0.003567363388829579</v>
       </c>
+      <c r="D423">
+        <v>0.00115909425406964</v>
+      </c>
+      <c r="E423">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -6721,6 +9263,12 @@
       <c r="C424">
         <v>-0.001866899786043345</v>
       </c>
+      <c r="D424">
+        <v>0.0006065860354183438</v>
+      </c>
+      <c r="E424">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -6736,6 +9284,12 @@
       <c r="C425">
         <v>-0.4672898472780425</v>
       </c>
+      <c r="D425">
+        <v>0.151830054280723</v>
+      </c>
+      <c r="E425">
+        <v>15.2</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -6751,6 +9305,12 @@
       <c r="C426">
         <v>0.2162942664312201</v>
       </c>
+      <c r="D426">
+        <v>0.07027751705746169</v>
+      </c>
+      <c r="E426">
+        <v>7</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -6766,6 +9326,12 @@
       <c r="C427">
         <v>0.2621668038260628</v>
       </c>
+      <c r="D427">
+        <v>0.08518224884913984</v>
+      </c>
+      <c r="E427">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -6781,6 +9347,12 @@
       <c r="C428">
         <v>-0.2208388158334043</v>
       </c>
+      <c r="D428">
+        <v>0.07175411490446026</v>
+      </c>
+      <c r="E428">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -6796,6 +9368,12 @@
       <c r="C429">
         <v>-0.005035636605121528</v>
       </c>
+      <c r="D429">
+        <v>0.001636160048302259</v>
+      </c>
+      <c r="E429">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -6811,6 +9389,12 @@
       <c r="C430">
         <v>0.1160132464358637</v>
       </c>
+      <c r="D430">
+        <v>0.03769458636057071</v>
+      </c>
+      <c r="E430">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -6826,6 +9410,12 @@
       <c r="C431">
         <v>0.1131186229164772</v>
       </c>
+      <c r="D431">
+        <v>0.03675407620690327</v>
+      </c>
+      <c r="E431">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -6841,6 +9431,12 @@
       <c r="C432">
         <v>0.2516031355805509</v>
       </c>
+      <c r="D432">
+        <v>0.08174994161528439</v>
+      </c>
+      <c r="E432">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -6856,6 +9452,12 @@
       <c r="C433">
         <v>-0.1110625145929093</v>
       </c>
+      <c r="D433">
+        <v>0.03608601324728025</v>
+      </c>
+      <c r="E433">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -6871,6 +9473,12 @@
       <c r="C434">
         <v>-0.1429485697291549</v>
       </c>
+      <c r="D434">
+        <v>0.04644630998887345</v>
+      </c>
+      <c r="E434">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -6886,6 +9494,12 @@
       <c r="C435">
         <v>0.570145651447814</v>
       </c>
+      <c r="D435">
+        <v>0.1852495741379386</v>
+      </c>
+      <c r="E435">
+        <v>18.5</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -6901,6 +9515,12 @@
       <c r="C436">
         <v>0.005433385089086518</v>
       </c>
+      <c r="D436">
+        <v>0.00176539498516693</v>
+      </c>
+      <c r="E436">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -6916,6 +9536,12 @@
       <c r="C437">
         <v>-0.265771139642534</v>
       </c>
+      <c r="D437">
+        <v>0.08635335604491666</v>
+      </c>
+      <c r="E437">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -6931,6 +9557,12 @@
       <c r="C438">
         <v>-0.3150223999412873</v>
       </c>
+      <c r="D438">
+        <v>0.1023558897359693</v>
+      </c>
+      <c r="E438">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -6946,6 +9578,12 @@
       <c r="C439">
         <v>0.001304446272469343</v>
       </c>
+      <c r="D439">
+        <v>0.0004336760749998765</v>
+      </c>
+      <c r="E439">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -6961,6 +9599,12 @@
       <c r="C440">
         <v>-0.001808341252576534</v>
       </c>
+      <c r="D440">
+        <v>0.000601200948808095</v>
+      </c>
+      <c r="E440">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -6976,6 +9620,12 @@
       <c r="C441">
         <v>0.0008977727588127942</v>
       </c>
+      <c r="D441">
+        <v>0.0002984734400342224</v>
+      </c>
+      <c r="E441">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -6991,6 +9641,12 @@
       <c r="C442">
         <v>-0.0008454084761049861</v>
       </c>
+      <c r="D442">
+        <v>0.0002810644159339678</v>
+      </c>
+      <c r="E442">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -7006,6 +9662,12 @@
       <c r="C443">
         <v>-0.0004344259907048479</v>
       </c>
+      <c r="D443">
+        <v>0.0001444292206609369</v>
+      </c>
+      <c r="E443">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -7021,6 +9683,12 @@
       <c r="C444">
         <v>-0.0002987686904966295</v>
       </c>
+      <c r="D444">
+        <v>9.932860843870158E-05</v>
+      </c>
+      <c r="E444">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -7036,6 +9704,12 @@
       <c r="C445">
         <v>0.002259811552093704</v>
       </c>
+      <c r="D445">
+        <v>0.0007512967186422843</v>
+      </c>
+      <c r="E445">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -7051,6 +9725,12 @@
       <c r="C446">
         <v>-0.002128164227266717</v>
       </c>
+      <c r="D446">
+        <v>0.0007075292624272234</v>
+      </c>
+      <c r="E446">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -7066,6 +9746,12 @@
       <c r="C447">
         <v>0.001540104012740381</v>
       </c>
+      <c r="D447">
+        <v>0.0005120228233489818</v>
+      </c>
+      <c r="E447">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -7081,6 +9767,12 @@
       <c r="C448">
         <v>0.2942269337440016</v>
       </c>
+      <c r="D448">
+        <v>0.09781865645090887</v>
+      </c>
+      <c r="E448">
+        <v>9.800000000000001</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -7096,6 +9788,12 @@
       <c r="C449">
         <v>-0.1352789206782851</v>
       </c>
+      <c r="D449">
+        <v>0.04497481620221894</v>
+      </c>
+      <c r="E449">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -7111,6 +9809,12 @@
       <c r="C450">
         <v>-0.1654315878201137</v>
       </c>
+      <c r="D450">
+        <v>0.05499936885174425</v>
+      </c>
+      <c r="E450">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -7126,6 +9830,12 @@
       <c r="C451">
         <v>0.1385784466257118</v>
       </c>
+      <c r="D451">
+        <v>0.04607177626292847</v>
+      </c>
+      <c r="E451">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -7141,6 +9851,12 @@
       <c r="C452">
         <v>0.0002015986163271741</v>
       </c>
+      <c r="D452">
+        <v>6.702345546871088E-05</v>
+      </c>
+      <c r="E452">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -7156,6 +9872,12 @@
       <c r="C453">
         <v>-0.07218240206432269</v>
       </c>
+      <c r="D453">
+        <v>0.0239977540447563</v>
+      </c>
+      <c r="E453">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -7171,6 +9893,12 @@
       <c r="C454">
         <v>-0.06893225841775466</v>
       </c>
+      <c r="D454">
+        <v>0.02291721161876494</v>
+      </c>
+      <c r="E454">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -7186,6 +9914,12 @@
       <c r="C455">
         <v>-0.5238491452161405</v>
       </c>
+      <c r="D455">
+        <v>0.17415883350973</v>
+      </c>
+      <c r="E455">
+        <v>17.4</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -7201,6 +9935,12 @@
       <c r="C456">
         <v>0.2425231791243969</v>
       </c>
+      <c r="D456">
+        <v>0.08062923145164057</v>
+      </c>
+      <c r="E456">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -7216,6 +9956,12 @@
       <c r="C457">
         <v>0.2889250767859358</v>
       </c>
+      <c r="D457">
+        <v>0.09605600162616693</v>
+      </c>
+      <c r="E457">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -7231,6 +9977,12 @@
       <c r="C458">
         <v>0.5262696768293</v>
       </c>
+      <c r="D458">
+        <v>0.1749635632035187</v>
+      </c>
+      <c r="E458">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -7246,6 +9998,12 @@
       <c r="C459">
         <v>0.003530655925490839</v>
       </c>
+      <c r="D459">
+        <v>0.001173801509696068</v>
+      </c>
+      <c r="E459">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -7261,6 +10019,12 @@
       <c r="C460">
         <v>-0.245728987084223</v>
       </c>
+      <c r="D460">
+        <v>0.08169503403972947</v>
+      </c>
+      <c r="E460">
+        <v>8.199999999999999</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -7276,6 +10040,12 @@
       <c r="C461">
         <v>-0.2907054558223446</v>
       </c>
+      <c r="D461">
+        <v>0.09664790625943344</v>
+      </c>
+      <c r="E461">
+        <v>9.699999999999999</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -7291,6 +10061,12 @@
       <c r="C462">
         <v>0.5206153788890752</v>
       </c>
+      <c r="D462">
+        <v>0.2101612623776025</v>
+      </c>
+      <c r="E462">
+        <v>21</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -7306,6 +10082,12 @@
       <c r="C463">
         <v>0.5355924070841486</v>
       </c>
+      <c r="D463">
+        <v>0.2162071674349178</v>
+      </c>
+      <c r="E463">
+        <v>21.6</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -7321,6 +10103,12 @@
       <c r="C464">
         <v>0.05687982809586815</v>
       </c>
+      <c r="D464">
+        <v>0.02296116665235054</v>
+      </c>
+      <c r="E464">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -7336,6 +10124,12 @@
       <c r="C465">
         <v>-0.2298851434279901</v>
       </c>
+      <c r="D465">
+        <v>0.09279970186008742</v>
+      </c>
+      <c r="E465">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -7351,6 +10145,12 @@
       <c r="C466">
         <v>-0.270535856094252</v>
       </c>
+      <c r="D466">
+        <v>0.1092095226931194</v>
+      </c>
+      <c r="E466">
+        <v>10.9</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -7366,6 +10166,12 @@
       <c r="C467">
         <v>-0.03634215688515654</v>
       </c>
+      <c r="D467">
+        <v>0.01467054927345261</v>
+      </c>
+      <c r="E467">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -7381,6 +10187,12 @@
       <c r="C468">
         <v>-0.3867223351922361</v>
       </c>
+      <c r="D468">
+        <v>0.1561115123549421</v>
+      </c>
+      <c r="E468">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -7396,6 +10208,12 @@
       <c r="C469">
         <v>-0.4004190608968079</v>
       </c>
+      <c r="D469">
+        <v>0.161640586756576</v>
+      </c>
+      <c r="E469">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -7411,6 +10229,12 @@
       <c r="C470">
         <v>-0.04022332728991602</v>
       </c>
+      <c r="D470">
+        <v>0.0162372945230981</v>
+      </c>
+      <c r="E470">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -7426,6 +10250,12 @@
       <c r="C471">
         <v>-4.476767056848151E-07</v>
       </c>
+      <c r="D471">
+        <v>1.807174843826756E-07</v>
+      </c>
+      <c r="E471">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -7441,6 +10271,12 @@
       <c r="C472">
         <v>1.952164999446E-07</v>
       </c>
+      <c r="D472">
+        <v>7.880471405366555E-08</v>
+      </c>
+      <c r="E472">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -7456,6 +10292,12 @@
       <c r="C473">
         <v>2.705101389333859E-07</v>
       </c>
+      <c r="D473">
+        <v>1.091991412268555E-07</v>
+      </c>
+      <c r="E473">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -7471,6 +10313,12 @@
       <c r="C474">
         <v>3.358303508768184E-07</v>
       </c>
+      <c r="D474">
+        <v>1.355675098103914E-07</v>
+      </c>
+      <c r="E474">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -7486,6 +10334,12 @@
       <c r="C475">
         <v>1.869197260479121E-08</v>
       </c>
+      <c r="D475">
+        <v>7.54554843795245E-09</v>
+      </c>
+      <c r="E475">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -7501,6 +10355,12 @@
       <c r="C476">
         <v>-1.857742417846652E-07</v>
       </c>
+      <c r="D476">
+        <v>7.499307695062497E-08</v>
+      </c>
+      <c r="E476">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -7516,6 +10376,12 @@
       <c r="C477">
         <v>-1.751241616634158E-07</v>
       </c>
+      <c r="D477">
+        <v>7.069386802698449E-08</v>
+      </c>
+      <c r="E477">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -7531,6 +10397,12 @@
       <c r="C478">
         <v>4.179340017485042E-07</v>
       </c>
+      <c r="D478">
+        <v>1.687109927206031E-07</v>
+      </c>
+      <c r="E478">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -7546,6 +10418,12 @@
       <c r="C479">
         <v>-1.595525609737579E-07</v>
       </c>
+      <c r="D479">
+        <v>6.440794680590638E-08</v>
+      </c>
+      <c r="E479">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -7561,6 +10439,12 @@
       <c r="C480">
         <v>-2.690458748260081E-07</v>
       </c>
+      <c r="D480">
+        <v>1.086080492120223E-07</v>
+      </c>
+      <c r="E480">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -7576,6 +10460,12 @@
       <c r="C481">
         <v>-2.387964203172238E-07</v>
       </c>
+      <c r="D481">
+        <v>9.639699321255193E-08</v>
+      </c>
+      <c r="E481">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -7591,6 +10481,12 @@
       <c r="C482">
         <v>-6.158563530039968E-08</v>
       </c>
+      <c r="D482">
+        <v>2.486080009137863E-08</v>
+      </c>
+      <c r="E482">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -7606,6 +10502,12 @@
       <c r="C483">
         <v>1.524718112947876E-07</v>
       </c>
+      <c r="D483">
+        <v>6.154960002735444E-08</v>
+      </c>
+      <c r="E483">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -7621,6 +10523,12 @@
       <c r="C484">
         <v>1.338147105137937E-07</v>
       </c>
+      <c r="D484">
+        <v>5.401812859674336E-08</v>
+      </c>
+      <c r="E484">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -7636,6 +10544,12 @@
       <c r="C485">
         <v>-0.5477781756840797</v>
       </c>
+      <c r="D485">
+        <v>0.231916350057362</v>
+      </c>
+      <c r="E485">
+        <v>23.2</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -7651,6 +10565,12 @@
       <c r="C486">
         <v>0.5121454118745018</v>
       </c>
+      <c r="D486">
+        <v>0.2168302789212616</v>
+      </c>
+      <c r="E486">
+        <v>21.7</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -7666,6 +10586,12 @@
       <c r="C487">
         <v>0.004976452322450324</v>
       </c>
+      <c r="D487">
+        <v>0.002106912451223281</v>
+      </c>
+      <c r="E487">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -7681,6 +10607,12 @@
       <c r="C488">
         <v>0.241879265039935</v>
       </c>
+      <c r="D488">
+        <v>0.1024059716007582</v>
+      </c>
+      <c r="E488">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -7696,6 +10628,12 @@
       <c r="C489">
         <v>-0.2586924162474977</v>
       </c>
+      <c r="D489">
+        <v>0.1095242629714412</v>
+      </c>
+      <c r="E489">
+        <v>11</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -7711,6 +10649,12 @@
       <c r="C490">
         <v>-0.003179584954920277</v>
       </c>
+      <c r="D490">
+        <v>0.001346161220317934</v>
+      </c>
+      <c r="E490">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -7726,6 +10670,12 @@
       <c r="C491">
         <v>0.4068993214374442</v>
       </c>
+      <c r="D491">
+        <v>0.1722715684149737</v>
+      </c>
+      <c r="E491">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -7741,6 +10691,12 @@
       <c r="C492">
         <v>-0.3828896514244802</v>
       </c>
+      <c r="D492">
+        <v>0.1621064408457079</v>
+      </c>
+      <c r="E492">
+        <v>16.2</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -7756,6 +10712,12 @@
       <c r="C493">
         <v>-0.003519156757329516</v>
       </c>
+      <c r="D493">
+        <v>0.001489927906347006</v>
+      </c>
+      <c r="E493">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -7771,6 +10733,12 @@
       <c r="C494">
         <v>-1.705749302068116E-07</v>
       </c>
+      <c r="D494">
+        <v>7.221739927015266E-08</v>
+      </c>
+      <c r="E494">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -7786,6 +10754,12 @@
       <c r="C495">
         <v>9.141066500796231E-08</v>
       </c>
+      <c r="D495">
+        <v>3.870111794521239E-08</v>
+      </c>
+      <c r="E495">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -7801,6 +10775,12 @@
       <c r="C496">
         <v>8.518262084410883E-08</v>
       </c>
+      <c r="D496">
+        <v>3.60643110503901E-08</v>
+      </c>
+      <c r="E496">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -7816,6 +10796,12 @@
       <c r="C497">
         <v>3.251728739551571E-07</v>
       </c>
+      <c r="D497">
+        <v>1.376705195879063E-07</v>
+      </c>
+      <c r="E497">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -7831,6 +10817,12 @@
       <c r="C498">
         <v>-1.510715231306153E-08</v>
       </c>
+      <c r="D498">
+        <v>6.396011706436613E-09</v>
+      </c>
+      <c r="E498">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -7846,6 +10838,12 @@
       <c r="C499">
         <v>-1.654831373018012E-07</v>
       </c>
+      <c r="D499">
+        <v>7.006165433872441E-08</v>
+      </c>
+      <c r="E499">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -7861,6 +10859,12 @@
       <c r="C500">
         <v>-1.480193589315301E-07</v>
       </c>
+      <c r="D500">
+        <v>6.266790278448247E-08</v>
+      </c>
+      <c r="E500">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -7876,6 +10880,12 @@
       <c r="C501">
         <v>1.105953376075366E-06</v>
       </c>
+      <c r="D501">
+        <v>4.682345549687265E-07</v>
+      </c>
+      <c r="E501">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -7891,6 +10901,12 @@
       <c r="C502">
         <v>-4.923888348909499E-07</v>
       </c>
+      <c r="D502">
+        <v>2.084658105524174E-07</v>
+      </c>
+      <c r="E502">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -7906,6 +10922,12 @@
       <c r="C503">
         <v>-6.216751338826223E-07</v>
       </c>
+      <c r="D503">
+        <v>2.63202577925687E-07</v>
+      </c>
+      <c r="E503">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -7921,6 +10943,12 @@
       <c r="C504">
         <v>-8.515144241982766E-07</v>
       </c>
+      <c r="D504">
+        <v>3.605111084147196E-07</v>
+      </c>
+      <c r="E504">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -7936,6 +10964,12 @@
       <c r="C505">
         <v>-4.167167152673734E-08</v>
       </c>
+      <c r="D505">
+        <v>1.76428021236902E-08</v>
+      </c>
+      <c r="E505">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -7951,6 +10985,12 @@
       <c r="C506">
         <v>4.201169274483794E-07</v>
       </c>
+      <c r="D506">
+        <v>1.778675908171517E-07</v>
+      </c>
+      <c r="E506">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -7966,6 +11006,12 @@
       <c r="C507">
         <v>4.863455948081188E-07</v>
       </c>
+      <c r="D507">
+        <v>2.059072453434616E-07</v>
+      </c>
+      <c r="E507">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -7981,6 +11027,12 @@
       <c r="C508">
         <v>0.03725753929838507</v>
       </c>
+      <c r="D508">
+        <v>0.01984447270765139</v>
+      </c>
+      <c r="E508">
+        <v>2</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -7996,6 +11048,12 @@
       <c r="C509">
         <v>0.04574730241419797</v>
       </c>
+      <c r="D509">
+        <v>0.02436637285507946</v>
+      </c>
+      <c r="E509">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -8011,6 +11069,12 @@
       <c r="C510">
         <v>-0.7216396720708604</v>
       </c>
+      <c r="D510">
+        <v>0.3843667361518268</v>
+      </c>
+      <c r="E510">
+        <v>38.4</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -8026,6 +11090,12 @@
       <c r="C511">
         <v>-0.01645160257156881</v>
       </c>
+      <c r="D511">
+        <v>0.008762612463855759</v>
+      </c>
+      <c r="E511">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -8041,6 +11111,12 @@
       <c r="C512">
         <v>-0.02310766677491034</v>
       </c>
+      <c r="D512">
+        <v>0.01230783007379361</v>
+      </c>
+      <c r="E512">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -8056,6 +11132,12 @@
       <c r="C513">
         <v>0.4610763985232068</v>
       </c>
+      <c r="D513">
+        <v>0.2455829928369041</v>
+      </c>
+      <c r="E513">
+        <v>24.6</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -8071,6 +11153,12 @@
       <c r="C514">
         <v>-0.02767557945194716</v>
       </c>
+      <c r="D514">
+        <v>0.01474083612189623</v>
+      </c>
+      <c r="E514">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -8086,6 +11174,12 @@
       <c r="C515">
         <v>-0.03420154192933766</v>
       </c>
+      <c r="D515">
+        <v>0.01821675768602772</v>
+      </c>
+      <c r="E515">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -8101,6 +11195,12 @@
       <c r="C516">
         <v>0.5103170542373374</v>
       </c>
+      <c r="D516">
+        <v>0.2718100294804185</v>
+      </c>
+      <c r="E516">
+        <v>27.2</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -8116,6 +11216,12 @@
       <c r="C517">
         <v>4.188348538441629E-07</v>
       </c>
+      <c r="D517">
+        <v>2.230838907411128E-07</v>
+      </c>
+      <c r="E517">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -8131,6 +11237,12 @@
       <c r="C518">
         <v>-1.924413973120437E-07</v>
       </c>
+      <c r="D518">
+        <v>1.025000074802761E-07</v>
+      </c>
+      <c r="E518">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -8146,6 +11258,12 @@
       <c r="C519">
         <v>-2.201458263917916E-07</v>
       </c>
+      <c r="D519">
+        <v>1.17256209771337E-07</v>
+      </c>
+      <c r="E519">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -8161,6 +11279,12 @@
       <c r="C520">
         <v>-1.701375713454543E-07</v>
       </c>
+      <c r="D520">
+        <v>9.06203269107819E-08</v>
+      </c>
+      <c r="E520">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -8176,6 +11300,12 @@
       <c r="C521">
         <v>-1.608537226685033E-09</v>
       </c>
+      <c r="D521">
+        <v>8.567547319362554E-10</v>
+      </c>
+      <c r="E521">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -8191,6 +11321,12 @@
       <c r="C522">
         <v>1.028434538966682E-07</v>
       </c>
+      <c r="D522">
+        <v>5.477748000661704E-08</v>
+      </c>
+      <c r="E522">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -8206,6 +11342,12 @@
       <c r="C523">
         <v>6.9790753028261E-08</v>
       </c>
+      <c r="D523">
+        <v>3.717262921268113E-08</v>
+      </c>
+      <c r="E523">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -8221,6 +11363,12 @@
       <c r="C524">
         <v>9.833553959839749E-08</v>
       </c>
+      <c r="D524">
+        <v>5.23764308781701E-08</v>
+      </c>
+      <c r="E524">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -8236,6 +11384,12 @@
       <c r="C525">
         <v>-2.430398950166664E-08</v>
       </c>
+      <c r="D525">
+        <v>1.294502711223806E-08</v>
+      </c>
+      <c r="E525">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -8251,6 +11405,12 @@
       <c r="C526">
         <v>-7.970102688909099E-08</v>
       </c>
+      <c r="D526">
+        <v>4.245113559984654E-08</v>
+      </c>
+      <c r="E526">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -8266,6 +11426,12 @@
       <c r="C527">
         <v>-5.791678128317622E-07</v>
       </c>
+      <c r="D527">
+        <v>3.084819897214262E-07</v>
+      </c>
+      <c r="E527">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -8281,6 +11447,12 @@
       <c r="C528">
         <v>4.703988218481329E-08</v>
       </c>
+      <c r="D528">
+        <v>2.505483925579932E-08</v>
+      </c>
+      <c r="E528">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -8296,6 +11468,12 @@
       <c r="C529">
         <v>2.524822574690202E-07</v>
       </c>
+      <c r="D529">
+        <v>1.344795539872747E-07</v>
+      </c>
+      <c r="E529">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -8310,6 +11488,12 @@
       </c>
       <c r="C530">
         <v>2.958270355628115E-07</v>
+      </c>
+      <c r="D530">
+        <v>1.57566270987362E-07</v>
+      </c>
+      <c r="E530">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
